--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\ondergrup-hydraulic-tool\src\main\resources\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B0859-8794-4F86-9370-F695F77664D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD3128-C163-4089-83FF-343004B9FCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="37" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -2200,7 +2200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6629,7 +6629,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7922,7 +7922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -8690,7 +8690,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\ondergrup-hydraulic-tool\src\main\resources\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD3128-C163-4089-83FF-343004B9FCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F64BCE-D246-764B-8F5C-E7D4670A3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="531">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1671,6 +1671,9 @@
   </si>
   <si>
     <t>1K-400 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>Kilitli Blok || Kompanzasyon</t>
   </si>
 </sst>
 </file>
@@ -2200,32 +2203,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
@@ -2350,25 +2353,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -2385,27 +2393,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2423,16 +2431,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>199</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>201</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>203</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>199</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>201</v>
       </c>
@@ -2532,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>203</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>200</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>202</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>204</v>
       </c>
@@ -2593,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>200</v>
       </c>
@@ -2621,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>202</v>
       </c>
@@ -2632,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>204</v>
       </c>
@@ -2656,15 +2664,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>199</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>201</v>
       </c>
@@ -2714,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>203</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>199</v>
       </c>
@@ -2753,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>201</v>
       </c>
@@ -2764,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>203</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>200</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>202</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>204</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>200</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>202</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>204</v>
       </c>
@@ -2888,16 +2896,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>219</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>220</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>221</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>224</v>
       </c>
@@ -2969,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>225</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>227</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>295</v>
       </c>
@@ -3008,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>229</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>230</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>219</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>220</v>
       </c>
@@ -3066,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>221</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>224</v>
       </c>
@@ -3088,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>227</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>295</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>229</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>230</v>
       </c>
@@ -3143,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>219</v>
       </c>
@@ -3168,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>220</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>221</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>224</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>225</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>227</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>295</v>
       </c>
@@ -3234,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>229</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>230</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>219</v>
       </c>
@@ -3281,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>220</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>221</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>224</v>
       </c>
@@ -3314,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>225</v>
       </c>
@@ -3325,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>227</v>
       </c>
@@ -3336,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>295</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>229</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>230</v>
       </c>
@@ -3369,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>219</v>
       </c>
@@ -3394,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>220</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>221</v>
       </c>
@@ -3416,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>224</v>
       </c>
@@ -3427,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>231</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>227</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>295</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>229</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>230</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>219</v>
       </c>
@@ -3510,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>220</v>
       </c>
@@ -3521,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>223</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>225</v>
       </c>
@@ -3546,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>227</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>295</v>
       </c>
@@ -3568,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>234</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>235</v>
       </c>
@@ -3590,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>219</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>220</v>
       </c>
@@ -3626,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>223</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>225</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>227</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>295</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>234</v>
       </c>
@@ -3681,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>235</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>219</v>
       </c>
@@ -3717,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>220</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>223</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>236</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>220</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>225</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>227</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>295</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>234</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>235</v>
       </c>
@@ -3816,12 +3824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>237</v>
       </c>
@@ -3846,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>238</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>239</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>240</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>221</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>123</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>295</v>
       </c>
@@ -3912,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>241</v>
       </c>
@@ -3923,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>235</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>237</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>238</v>
       </c>
@@ -3970,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>239</v>
       </c>
@@ -3981,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>240</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>221</v>
       </c>
@@ -4003,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>123</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>295</v>
       </c>
@@ -4025,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>241</v>
       </c>
@@ -4036,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>235</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>237</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>238</v>
       </c>
@@ -4083,7 +4091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>239</v>
       </c>
@@ -4094,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>240</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>221</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>123</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>295</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>241</v>
       </c>
@@ -4149,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>235</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -4174,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>237</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>238</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>239</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>240</v>
       </c>
@@ -4218,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>221</v>
       </c>
@@ -4229,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>123</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>295</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>241</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>235</v>
       </c>
@@ -4273,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>237</v>
       </c>
@@ -4298,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>238</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>239</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>240</v>
       </c>
@@ -4331,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>221</v>
       </c>
@@ -4342,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>295</v>
       </c>
@@ -4353,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>295</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>241</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>235</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -4400,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>237</v>
       </c>
@@ -4411,7 +4419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>238</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>295</v>
       </c>
@@ -4433,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>241</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>235</v>
       </c>
@@ -4468,15 +4476,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>440</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4571,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -4613,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4660,7 +4668,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>249</v>
       </c>
@@ -4685,14 +4693,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,7 +4711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -4759,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -4800,14 +4808,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="90.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>259</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>445</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>447</v>
       </c>
@@ -4851,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>253</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>229</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>451</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>453</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>455</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>387</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>287</v>
       </c>
@@ -4928,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>224</v>
       </c>
@@ -4939,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>219</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>281</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>274</v>
       </c>
@@ -4972,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>272</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>289</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>260</v>
       </c>
@@ -5005,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>464</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>466</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>468</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>470</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>472</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>474</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>286</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>477</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>395</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>480</v>
       </c>
@@ -5128,16 +5136,16 @@
       <selection activeCell="B42" sqref="B42:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -5179,7 +5187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>295</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>259</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>261</v>
       </c>
@@ -5226,7 +5234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>262</v>
       </c>
@@ -5240,7 +5248,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>264</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>295</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>259</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>261</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>262</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>295</v>
       </c>
@@ -5421,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>271</v>
       </c>
@@ -5432,7 +5440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>268</v>
       </c>
@@ -5443,7 +5451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>269</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>295</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>259</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>261</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>262</v>
       </c>
@@ -5540,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>264</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>272</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>274</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>275</v>
       </c>
@@ -5590,7 +5598,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>517</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>277</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>278</v>
       </c>
@@ -5626,7 +5634,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>280</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>281</v>
       </c>
@@ -5648,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>282</v>
       </c>
@@ -5659,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>515</v>
       </c>
@@ -5670,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>516</v>
       </c>
@@ -5694,15 +5702,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5713,7 +5721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -5727,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>269</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>284</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>514</v>
       </c>
@@ -5773,23 +5781,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5807,15 +5815,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>285</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>286</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>287</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -5917,7 +5925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -5928,7 +5936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -5950,7 +5958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -5996,52 +6004,52 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -6059,47 +6067,47 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>301</v>
       </c>
@@ -6117,82 +6125,82 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>305</v>
       </c>
@@ -6210,42 +6218,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>315</v>
       </c>
@@ -6263,47 +6271,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>319</v>
       </c>
@@ -6321,32 +6329,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -6364,32 +6372,32 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -6407,13 +6415,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6424,7 +6432,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>303</v>
       </c>
@@ -6435,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>298</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>437</v>
       </c>
@@ -6457,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>300</v>
       </c>
@@ -6468,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6479,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>438</v>
       </c>
@@ -6490,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>301</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -6525,13 +6533,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6542,7 +6550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>297</v>
       </c>
@@ -6553,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>298</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>299</v>
       </c>
@@ -6575,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>439</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>438</v>
       </c>
@@ -6608,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>440</v>
       </c>
@@ -6632,72 +6640,72 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -6715,13 +6723,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="1" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>362</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6754,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>307</v>
       </c>
@@ -6765,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>308</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>361</v>
       </c>
@@ -6899,13 +6907,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>362</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
@@ -6927,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6938,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>307</v>
       </c>
@@ -6949,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>308</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6971,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6982,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6993,7 +7001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -7015,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -7037,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -7059,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>361</v>
       </c>
@@ -7081,13 +7089,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7098,7 +7106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>441</v>
       </c>
@@ -7109,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>442</v>
       </c>
@@ -7120,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>318</v>
       </c>
@@ -7131,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>443</v>
       </c>
@@ -7142,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>314</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>315</v>
       </c>
@@ -7177,12 +7185,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7193,7 +7201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>317</v>
       </c>
@@ -7204,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>441</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>442</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>318</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>313</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>319</v>
       </c>
@@ -7283,13 +7291,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7300,7 +7308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>380</v>
       </c>
@@ -7311,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>382</v>
       </c>
@@ -7322,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>384</v>
       </c>
@@ -7333,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>386</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>388</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7373,13 +7381,13 @@
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7390,7 +7398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>394</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>396</v>
       </c>
@@ -7412,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>273</v>
       </c>
@@ -7423,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>397</v>
       </c>
@@ -7434,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>399</v>
       </c>
@@ -7445,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>400</v>
       </c>
@@ -7456,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>386</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>401</v>
       </c>
@@ -7478,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>403</v>
       </c>
@@ -7489,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>405</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7518,13 +7526,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7535,7 +7543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>394</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>396</v>
       </c>
@@ -7557,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>273</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>380</v>
       </c>
@@ -7579,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>399</v>
       </c>
@@ -7590,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>400</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>386</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>401</v>
       </c>
@@ -7623,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>403</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>405</v>
       </c>
@@ -7658,13 +7666,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7675,7 +7683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>380</v>
       </c>
@@ -7686,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>382</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
@@ -7708,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>386</v>
       </c>
@@ -7719,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>388</v>
       </c>
@@ -7730,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>391</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
@@ -7759,13 +7767,13 @@
       <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7776,7 +7784,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>394</v>
       </c>
@@ -7787,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>396</v>
       </c>
@@ -7798,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>273</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>397</v>
       </c>
@@ -7820,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>399</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>400</v>
       </c>
@@ -7842,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>386</v>
       </c>
@@ -7853,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>401</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>407</v>
       </c>
@@ -7875,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>403</v>
       </c>
@@ -7886,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>405</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>391</v>
       </c>
@@ -7908,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7926,13 +7934,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>394</v>
       </c>
@@ -7954,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>396</v>
       </c>
@@ -7965,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>273</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>380</v>
       </c>
@@ -7987,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>399</v>
       </c>
@@ -7998,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>400</v>
       </c>
@@ -8009,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>386</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>401</v>
       </c>
@@ -8031,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>407</v>
       </c>
@@ -8042,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>403</v>
       </c>
@@ -8053,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>405</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>391</v>
       </c>
@@ -8088,72 +8096,72 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -8171,13 +8179,13 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>419</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>408</v>
       </c>
@@ -8199,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>482</v>
       </c>
@@ -8210,7 +8218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>411</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>413</v>
       </c>
@@ -8232,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>415</v>
       </c>
@@ -8243,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>416</v>
       </c>
@@ -8254,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>399</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>400</v>
       </c>
@@ -8276,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>417</v>
       </c>
@@ -8300,13 +8308,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
@@ -8317,7 +8325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>420</v>
       </c>
@@ -8325,7 +8333,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>421</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>423</v>
       </c>
@@ -8341,7 +8349,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>425</v>
       </c>
@@ -8349,7 +8357,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>427</v>
       </c>
@@ -8360,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>428</v>
       </c>
@@ -8371,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>430</v>
       </c>
@@ -8379,7 +8387,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>432</v>
       </c>
@@ -8387,7 +8395,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>434</v>
       </c>
@@ -8408,13 +8416,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>483</v>
       </c>
@@ -8425,7 +8433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>376</v>
       </c>
@@ -8436,7 +8444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>377</v>
       </c>
@@ -8447,7 +8455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>379</v>
       </c>
@@ -8458,7 +8466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>484</v>
       </c>
@@ -8469,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>487</v>
       </c>
@@ -8480,7 +8488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>488</v>
       </c>
@@ -8491,7 +8499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>490</v>
       </c>
@@ -8502,7 +8510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>492</v>
       </c>
@@ -8513,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>501</v>
       </c>
@@ -8537,13 +8545,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -8554,7 +8562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>494</v>
       </c>
@@ -8565,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>496</v>
       </c>
@@ -8589,13 +8597,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>495</v>
       </c>
@@ -8617,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>497</v>
       </c>
@@ -8641,13 +8649,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -8658,7 +8666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>498</v>
       </c>
@@ -8669,7 +8677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -8693,13 +8701,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -8710,7 +8718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>503</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>505</v>
       </c>
@@ -8745,69 +8753,69 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8825,84 +8833,84 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8920,144 +8928,144 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -9075,22 +9083,22 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -9108,27 +9116,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F64BCE-D246-764B-8F5C-E7D4670A3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78DCAE-44D4-4D44-9914-AFED42C1A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2337,7 +2337,7 @@
         <v>40</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <v>130</v>
@@ -2355,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,57 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78DCAE-44D4-4D44-9914-AFED42C1A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E57D4-CA24-3E4E-BDF3-7B47CE603734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="660" windowWidth="28480" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
-    <sheet name="Ünite Tipi" sheetId="1" r:id="rId2"/>
-    <sheet name="Motor" sheetId="5" r:id="rId3"/>
-    <sheet name="Kampana" sheetId="3" r:id="rId4"/>
-    <sheet name="Pompa-1" sheetId="6" r:id="rId5"/>
-    <sheet name="Pompa-2" sheetId="7" r:id="rId6"/>
-    <sheet name="Pompa-3" sheetId="8" r:id="rId7"/>
-    <sheet name="Kilit Motor" sheetId="10" r:id="rId8"/>
-    <sheet name="Kilit Pompa" sheetId="11" r:id="rId9"/>
-    <sheet name="Valf Tipi-1" sheetId="12" r:id="rId10"/>
-    <sheet name="Valf Tipi-2" sheetId="14" r:id="rId11"/>
-    <sheet name="Parça-Kampana-1K" sheetId="15" r:id="rId12"/>
-    <sheet name="Parça-Kampana-2K" sheetId="52" r:id="rId13"/>
-    <sheet name="Parça-Pompa" sheetId="16" r:id="rId14"/>
-    <sheet name="Parça-Motor" sheetId="17" r:id="rId15"/>
-    <sheet name="Parça-Kaplin" sheetId="18" r:id="rId16"/>
-    <sheet name="Parça-Soğutucu" sheetId="45" r:id="rId17"/>
-    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId18"/>
-    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId19"/>
-    <sheet name="Parça-Standart" sheetId="22" r:id="rId20"/>
-    <sheet name="Hidros-380" sheetId="25" r:id="rId21"/>
-    <sheet name="Hidros-220" sheetId="26" r:id="rId22"/>
-    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId23"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId24"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId25"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId26"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId27"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId28"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId29"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId30"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId44"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId45"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId46"/>
+    <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
+    <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId2"/>
+    <sheet name="Ünite Tipi" sheetId="1" r:id="rId3"/>
+    <sheet name="Motor" sheetId="5" r:id="rId4"/>
+    <sheet name="Kampana" sheetId="3" r:id="rId5"/>
+    <sheet name="Pompa-1" sheetId="6" r:id="rId6"/>
+    <sheet name="Pompa-2" sheetId="7" r:id="rId7"/>
+    <sheet name="Pompa-3" sheetId="8" r:id="rId8"/>
+    <sheet name="Kilit Motor" sheetId="10" r:id="rId9"/>
+    <sheet name="Kilit Pompa" sheetId="11" r:id="rId10"/>
+    <sheet name="Valf Tipi-1" sheetId="12" r:id="rId11"/>
+    <sheet name="Valf Tipi-2" sheetId="14" r:id="rId12"/>
+    <sheet name="Parça-Kampana-1K" sheetId="15" r:id="rId13"/>
+    <sheet name="Parça-Kampana-2K" sheetId="52" r:id="rId14"/>
+    <sheet name="Parça-Pompa" sheetId="16" r:id="rId15"/>
+    <sheet name="Parça-Motor" sheetId="17" r:id="rId16"/>
+    <sheet name="Parça-Kaplin" sheetId="18" r:id="rId17"/>
+    <sheet name="Parça-Soğutucu" sheetId="45" r:id="rId18"/>
+    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId19"/>
+    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId20"/>
+    <sheet name="Parça-Standart" sheetId="22" r:id="rId21"/>
+    <sheet name="Hidros-380" sheetId="25" r:id="rId22"/>
+    <sheet name="Hidros-220" sheetId="26" r:id="rId23"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId24"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId25"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId26"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId27"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId28"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId29"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId30"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId45"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId46"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="546">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1674,6 +1675,51 @@
   </si>
   <si>
     <t>Kilitli Blok || Kompanzasyon</t>
+  </si>
+  <si>
+    <t>kabinName</t>
+  </si>
+  <si>
+    <t>tankName</t>
+  </si>
+  <si>
+    <t>gecisX</t>
+  </si>
+  <si>
+    <t>gecisY</t>
+  </si>
+  <si>
+    <t>gecisH</t>
+  </si>
+  <si>
+    <t>kabinX</t>
+  </si>
+  <si>
+    <t>kabinY</t>
+  </si>
+  <si>
+    <t>kabinH</t>
+  </si>
+  <si>
+    <t>KD 40</t>
+  </si>
+  <si>
+    <t>KD 70</t>
+  </si>
+  <si>
+    <t>KD 125</t>
+  </si>
+  <si>
+    <t>KD 1620</t>
+  </si>
+  <si>
+    <t>KD 2530</t>
+  </si>
+  <si>
+    <t>KD 3540</t>
+  </si>
+  <si>
+    <t>kabinHacim</t>
   </si>
 </sst>
 </file>
@@ -2200,10 +2246,3725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2">
+        <v>540</v>
+      </c>
+      <c r="D2">
+        <v>460</v>
+      </c>
+      <c r="E2">
+        <v>780</v>
+      </c>
+      <c r="F2">
+        <v>550</v>
+      </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3">
+        <v>640</v>
+      </c>
+      <c r="D3">
+        <v>520</v>
+      </c>
+      <c r="E3">
+        <v>950</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3">
+        <v>370</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4">
+        <v>640</v>
+      </c>
+      <c r="D4">
+        <v>520</v>
+      </c>
+      <c r="E4">
+        <v>950</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
+      </c>
+      <c r="G4">
+        <v>470</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5">
+        <v>720</v>
+      </c>
+      <c r="D5">
+        <v>550</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>650</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>1100</v>
+      </c>
+      <c r="F6">
+        <v>700</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>1100</v>
+      </c>
+      <c r="F7">
+        <v>800</v>
+      </c>
+      <c r="G7">
+        <v>650</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8">
+        <v>1100</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <v>1150</v>
+      </c>
+      <c r="F8">
+        <v>900</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9">
+        <v>1100</v>
+      </c>
+      <c r="D9">
+        <v>900</v>
+      </c>
+      <c r="E9">
+        <v>1150</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>400</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10">
+        <v>1100</v>
+      </c>
+      <c r="D10">
+        <v>900</v>
+      </c>
+      <c r="E10">
+        <v>1250</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>450</v>
+      </c>
+      <c r="I10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11">
+        <v>1100</v>
+      </c>
+      <c r="D11">
+        <v>900</v>
+      </c>
+      <c r="E11">
+        <v>1250</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAAC03-6462-4911-8C15-76085A388A1C}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E152"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" t="s">
+        <v>113</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" t="s">
+        <v>121</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" t="s">
+        <v>98</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>237</v>
+      </c>
+      <c r="C144" t="s">
+        <v>109</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" t="s">
+        <v>122</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>517</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -2351,3350 +6112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" t="s">
-        <v>527</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>529</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAAC03-6462-4911-8C15-76085A388A1C}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E152"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>225</v>
-      </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" t="s">
-        <v>103</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>238</v>
-      </c>
-      <c r="C95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <v>123</v>
-      </c>
-      <c r="C99" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>295</v>
-      </c>
-      <c r="C100" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>237</v>
-      </c>
-      <c r="C104" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>238</v>
-      </c>
-      <c r="C105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>240</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <v>123</v>
-      </c>
-      <c r="C109" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>295</v>
-      </c>
-      <c r="C110" t="s">
-        <v>119</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" t="s">
-        <v>122</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" t="s">
-        <v>109</v>
-      </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>238</v>
-      </c>
-      <c r="C115" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>239</v>
-      </c>
-      <c r="C116" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>240</v>
-      </c>
-      <c r="C117" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" t="s">
-        <v>114</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <v>123</v>
-      </c>
-      <c r="C119" t="s">
-        <v>115</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>295</v>
-      </c>
-      <c r="C120" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>237</v>
-      </c>
-      <c r="C124" t="s">
-        <v>109</v>
-      </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>238</v>
-      </c>
-      <c r="C125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>239</v>
-      </c>
-      <c r="C126" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>240</v>
-      </c>
-      <c r="C127" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>221</v>
-      </c>
-      <c r="C128" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B129">
-        <v>123</v>
-      </c>
-      <c r="C129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" t="s">
-        <v>119</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>235</v>
-      </c>
-      <c r="C132" t="s">
-        <v>121</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>29</v>
-      </c>
-      <c r="B133" t="s">
-        <v>217</v>
-      </c>
-      <c r="C133" t="s">
-        <v>99</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>237</v>
-      </c>
-      <c r="C134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" t="s">
-        <v>113</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>221</v>
-      </c>
-      <c r="C138" t="s">
-        <v>114</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>295</v>
-      </c>
-      <c r="C139" t="s">
-        <v>115</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" t="s">
-        <v>119</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>241</v>
-      </c>
-      <c r="C141" t="s">
-        <v>122</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" t="s">
-        <v>121</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>30</v>
-      </c>
-      <c r="B143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C143" t="s">
-        <v>98</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>237</v>
-      </c>
-      <c r="C144" t="s">
-        <v>109</v>
-      </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>238</v>
-      </c>
-      <c r="C145" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>295</v>
-      </c>
-      <c r="C150" t="s">
-        <v>119</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>241</v>
-      </c>
-      <c r="C151" t="s">
-        <v>122</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>235</v>
-      </c>
-      <c r="C152" t="s">
-        <v>121</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="90.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>518</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" t="s">
-        <v>518</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>272</v>
-      </c>
-      <c r="C45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>517</v>
-      </c>
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>281</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>515</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>516</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5773,41 +6191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -5996,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -6059,7 +6443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9541355-E856-4355-88CD-486F283E4EC4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -6117,7 +6501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -6210,7 +6594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -6263,7 +6647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -6321,7 +6705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -6364,7 +6748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -6407,7 +6791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6525,7 +6909,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6632,90 +7050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6899,7 +7234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7083,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7177,7 +7512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7283,7 +7618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7373,7 +7708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -7518,7 +7853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7658,7 +7993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7759,7 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -7926,7 +8261,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8088,90 +8506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8300,7 +8635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8408,7 +8743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8537,7 +8872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8589,7 +8924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8641,7 +8976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8693,7 +9028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8746,6 +9081,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -8825,7 +9243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -8920,7 +9338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -9075,7 +9493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9106,42 +9524,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E57D4-CA24-3E4E-BDF3-7B47CE603734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B19D8-0AB5-5E44-B97C-186B1129D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="660" windowWidth="28480" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36340" yWindow="1680" windowWidth="28480" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="557">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1720,6 +1720,39 @@
   </si>
   <si>
     <t>kabinHacim</t>
+  </si>
+  <si>
+    <t>malzemeKodu</t>
+  </si>
+  <si>
+    <t>malzemeAdi</t>
+  </si>
+  <si>
+    <t>151-06-05-059</t>
+  </si>
+  <si>
+    <t>KD40 Kabin</t>
+  </si>
+  <si>
+    <t>KD70 Kabin</t>
+  </si>
+  <si>
+    <t>KD125 Kabin</t>
+  </si>
+  <si>
+    <t>KD1620 Kabin</t>
+  </si>
+  <si>
+    <t>KD2530 Kabin</t>
+  </si>
+  <si>
+    <t>KD3540 Kabin</t>
+  </si>
+  <si>
+    <t>151-06-05-068</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1963,6 +1996,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2247,15 +2283,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>532</v>
       </c>
@@ -2283,8 +2319,14 @@
       <c r="I1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -2312,8 +2354,14 @@
       <c r="I2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2341,8 +2389,14 @@
       <c r="I3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2370,8 +2424,14 @@
       <c r="I4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -2399,8 +2459,14 @@
       <c r="I5">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -2428,8 +2494,14 @@
       <c r="I6">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -2457,8 +2529,14 @@
       <c r="I7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -2486,8 +2564,14 @@
       <c r="I8">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -2515,8 +2599,14 @@
       <c r="I9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -2544,8 +2634,14 @@
       <c r="I10">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -2572,6 +2668,12 @@
       </c>
       <c r="I11">
         <v>400</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B19D8-0AB5-5E44-B97C-186B1129D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36340" yWindow="1680" windowWidth="28480" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="555">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1395,13 +1395,7 @@
     <t>Parçalar</t>
   </si>
   <si>
-    <t>0.75 Kw</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2 kW </t>
-  </si>
-  <si>
-    <t>1.1 Kw</t>
   </si>
   <si>
     <t>3 kW</t>
@@ -2285,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2293,37 +2287,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
         <v>532</v>
       </c>
-      <c r="B1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>533</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>534</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>535</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H1" t="s">
-        <v>538</v>
-      </c>
       <c r="I1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" t="s">
         <v>545</v>
-      </c>
-      <c r="J1" t="s">
-        <v>546</v>
-      </c>
-      <c r="K1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2331,7 +2325,7 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C2">
         <v>540</v>
@@ -2355,10 +2349,10 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2366,7 +2360,7 @@
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C3">
         <v>640</v>
@@ -2390,10 +2384,10 @@
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2401,7 +2395,7 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C4">
         <v>640</v>
@@ -2425,10 +2419,10 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2436,7 +2430,7 @@
         <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C5">
         <v>720</v>
@@ -2460,10 +2454,10 @@
         <v>125</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2471,7 +2465,7 @@
         <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C6">
         <v>900</v>
@@ -2495,10 +2489,10 @@
         <v>160</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2506,7 +2500,7 @@
         <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C7">
         <v>900</v>
@@ -2530,10 +2524,10 @@
         <v>200</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2541,7 +2535,7 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C8">
         <v>1100</v>
@@ -2565,10 +2559,10 @@
         <v>250</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2576,7 +2570,7 @@
         <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9">
         <v>1100</v>
@@ -2600,10 +2594,10 @@
         <v>300</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2611,7 +2605,7 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C10">
         <v>1100</v>
@@ -2635,10 +2629,10 @@
         <v>350</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2646,7 +2640,7 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C11">
         <v>1100</v>
@@ -2670,10 +2664,10 @@
         <v>400</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2738,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -2824,10 +2818,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2874,10 +2868,10 @@
         <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2924,10 +2918,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2977,7 +2971,7 @@
         <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3059,7 +3053,7 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3109,7 +3103,7 @@
         <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3159,7 +3153,7 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3209,7 +3203,7 @@
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4868,10 +4862,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4879,13 +4873,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5199,7 +5193,7 @@
         <v>259</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -5207,10 +5201,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -5218,10 +5212,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -5232,7 +5226,7 @@
         <v>253</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -5243,7 +5237,7 @@
         <v>229</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -5251,10 +5245,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -5262,10 +5256,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -5273,10 +5267,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -5298,7 +5292,7 @@
         <v>287</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -5309,7 +5303,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -5320,7 +5314,7 @@
         <v>219</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -5331,7 +5325,7 @@
         <v>281</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -5342,7 +5336,7 @@
         <v>274</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -5364,7 +5358,7 @@
         <v>289</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -5375,7 +5369,7 @@
         <v>260</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -5383,10 +5377,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -5394,10 +5388,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -5405,10 +5399,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -5416,10 +5410,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -5427,10 +5421,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5438,10 +5432,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -5452,7 +5446,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -5460,10 +5454,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -5474,7 +5468,7 @@
         <v>395</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -5482,10 +5476,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -5560,7 +5554,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
         <v>115</v>
@@ -5660,7 +5654,7 @@
         <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C16" t="s">
         <v>115</v>
@@ -5777,7 +5771,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C29" t="s">
         <v>115</v>
@@ -5863,7 +5857,7 @@
         <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C39" t="s">
         <v>115</v>
@@ -5968,7 +5962,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C48" t="s">
         <v>168</v>
@@ -6037,7 +6031,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>174</v>
@@ -6048,7 +6042,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>175</v>
@@ -6279,7 +6273,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>156</v>
@@ -6898,7 +6892,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6942,7 +6936,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>437</v>
+        <v>299</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>332</v>
@@ -6975,7 +6969,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>335</v>
@@ -7049,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7105,7 +7099,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>439</v>
+        <v>300</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>342</v>
@@ -7127,7 +7121,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>344</v>
@@ -7138,7 +7132,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>345</v>
@@ -7366,7 +7360,7 @@
         <v>306</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -7377,7 +7371,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -7388,7 +7382,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7399,7 +7393,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -7410,7 +7404,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -7421,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -7432,7 +7426,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -7443,7 +7437,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7454,7 +7448,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7465,7 +7459,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7476,7 +7470,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7487,7 +7481,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7498,7 +7492,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7509,7 +7503,7 @@
         <v>361</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7545,7 +7539,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>363</v>
@@ -7556,7 +7550,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>364</v>
@@ -7578,7 +7572,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>366</v>
@@ -7651,7 +7645,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>371</v>
@@ -7662,7 +7656,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>372</v>
@@ -8388,7 +8382,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -8646,7 +8640,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>410</v>
@@ -8861,7 +8855,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -8905,10 +8899,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8916,10 +8910,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -8927,10 +8921,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -8938,10 +8932,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -8949,7 +8943,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>389</v>
@@ -8960,10 +8954,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -8990,7 +8984,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>346</v>
@@ -9001,7 +8995,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>424</v>
@@ -9012,7 +9006,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>393</v>
@@ -9042,7 +9036,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>346</v>
@@ -9053,7 +9047,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>426</v>
@@ -9064,7 +9058,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>390</v>
@@ -9094,7 +9088,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>346</v>
@@ -9105,10 +9099,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9116,10 +9110,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -9146,7 +9140,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>346</v>
@@ -9157,10 +9151,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -9168,7 +9162,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>220</v>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2E5EC5-0A76-4538-AD5D-54D2F96F37C2}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7CD4DA-2929-4365-BF17-415DDC0D69C1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="29" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="557">
   <si>
     <t>tankName</t>
   </si>
@@ -408,10 +408,7 @@
     <t>Durum 1 (Hidrolik Kilit Yok)</t>
   </si>
   <si>
-    <t>Kilitli Blok || Çift Hız</t>
-  </si>
-  <si>
-    <t>Kilitli Blok || Kompanzasyon</t>
+    <t>Kompanzasyon || İnişte Tek Hız</t>
   </si>
   <si>
     <t>Durum 2 (Hidrolik Kilit Var)</t>
@@ -423,712 +420,718 @@
     <t>İnişte Çift Hız</t>
   </si>
   <si>
+    <t>İnişte Tek Hız + Kompanzasyon</t>
+  </si>
+  <si>
+    <t>Kilitli Blok</t>
+  </si>
+  <si>
+    <t>Malzeme Kodu</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>250 lik Kampana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-51-06-506 </t>
+  </si>
+  <si>
+    <t>1K-250 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-250 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-50-21-590</t>
+  </si>
+  <si>
+    <t>M12 x 60 - AKB Civata</t>
+  </si>
+  <si>
+    <t>150-50-23-007</t>
+  </si>
+  <si>
+    <t>M12 Somun</t>
+  </si>
+  <si>
+    <t>150-50-24-026</t>
+  </si>
+  <si>
+    <t>M12 Pul</t>
+  </si>
+  <si>
+    <t>300 lük Kampana</t>
+  </si>
+  <si>
+    <t>150-51-06-507</t>
+  </si>
+  <si>
+    <t>1K-300 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-300 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>350 lik Kampana</t>
+  </si>
+  <si>
+    <t>150-51-06-508</t>
+  </si>
+  <si>
+    <t>1K-350 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-350 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-50-21-639</t>
+  </si>
+  <si>
+    <t>M16 x 60 - AKB Civata</t>
+  </si>
+  <si>
+    <t>150-50-23-009</t>
+  </si>
+  <si>
+    <t>M16 Somun</t>
+  </si>
+  <si>
+    <t>150-50-24-008</t>
+  </si>
+  <si>
+    <t>M16 Pul</t>
+  </si>
+  <si>
+    <t>400 lük Kampana</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1K-400 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-400 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-51-06-510</t>
+  </si>
+  <si>
+    <t>2K-250 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>150-51-06-511</t>
+  </si>
+  <si>
+    <t>2K-300 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>150-51-06-512</t>
+  </si>
+  <si>
+    <t>2K-350 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>150-51-06-518</t>
+  </si>
+  <si>
+    <t>2K-400 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>150-51-01-305</t>
+  </si>
+  <si>
+    <t>9.5 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-50-21-065</t>
+  </si>
+  <si>
+    <t>M6 x 30 İmbus Civata</t>
+  </si>
+  <si>
+    <t>150-50-24-003</t>
+  </si>
+  <si>
+    <t>M6 Pul</t>
+  </si>
+  <si>
+    <t>150-51-06-396</t>
+  </si>
+  <si>
+    <t>40 x 1/2 Düz Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRÜ 1/2 Ø40</t>
+  </si>
+  <si>
+    <t>150-53-08-651</t>
+  </si>
+  <si>
+    <t>1/2 Galvanizli Kuyruklu Dirsek</t>
+  </si>
+  <si>
+    <t>150-51-06-413</t>
+  </si>
+  <si>
+    <t>30 x 1/2 Dirsek Adaptör Pompa</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRLERİ DPA-30 90 ° DİRSEK 1/2"</t>
+  </si>
+  <si>
+    <t>150-51-09-080</t>
+  </si>
+  <si>
+    <t>1/2 x M24 Nipel</t>
+  </si>
+  <si>
+    <t>REKOR M24 1/2"</t>
+  </si>
+  <si>
+    <t>1/2 x 10 cm Boru</t>
+  </si>
+  <si>
+    <t>150-51-07-004</t>
+  </si>
+  <si>
+    <t>45 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>150-53-08-011</t>
+  </si>
+  <si>
+    <t>1 - 1/2 Galvanizli Redüksiyon</t>
+  </si>
+  <si>
+    <t>150-51-01-306</t>
+  </si>
+  <si>
+    <t>11.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-308</t>
+  </si>
+  <si>
+    <t>14 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-309</t>
+  </si>
+  <si>
+    <t>14.6 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-310</t>
+  </si>
+  <si>
+    <t>16.8 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-433</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRLERİ DPA-30 1/2 90 ° DİRSEK</t>
+  </si>
+  <si>
+    <t>150-51-01-311</t>
+  </si>
+  <si>
+    <t>19.2 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-399</t>
+  </si>
+  <si>
+    <t>40 x 3/4 Dirsek Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRÜ 3/4 Ø40</t>
+  </si>
+  <si>
+    <t>1/2 - M24 Nipel</t>
+  </si>
+  <si>
+    <t>3/4 x 10 cm Boru</t>
+  </si>
+  <si>
+    <t>150-51-07-005</t>
+  </si>
+  <si>
+    <t>65 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>150-53-08-014</t>
+  </si>
+  <si>
+    <t>1 - 1/2 - 3/4 Galvanizli Redüksiyon</t>
+  </si>
+  <si>
+    <t>hidirektor</t>
+  </si>
+  <si>
+    <t>150-51-01-312</t>
+  </si>
+  <si>
+    <t>22.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-313</t>
+  </si>
+  <si>
+    <t>28.1 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-50-21-063</t>
+  </si>
+  <si>
+    <t>M6 x 20 İmbus Civata</t>
+  </si>
+  <si>
+    <t>150-51-01-354</t>
+  </si>
+  <si>
+    <t>33.3 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-50-21-097</t>
+  </si>
+  <si>
+    <t>M8 x 40 İmbus Civata</t>
+  </si>
+  <si>
+    <t>150-50-24-004</t>
+  </si>
+  <si>
+    <t>M8 Pul</t>
+  </si>
+  <si>
+    <t>150-51-06-443</t>
+  </si>
+  <si>
+    <t>51 x 3/4 Düz Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>150-53-08-652</t>
+  </si>
+  <si>
+    <t>3/4 Galvanizli Kuyruklu Dirsek</t>
+  </si>
+  <si>
+    <t>40 x 1/2 Düz Adaptör Pompa</t>
+  </si>
+  <si>
+    <t>1/2 - M30 Nipel</t>
+  </si>
+  <si>
+    <t>150-51-07-006</t>
+  </si>
+  <si>
+    <t>90 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>150-51-01-355</t>
+  </si>
+  <si>
+    <t>37.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-356</t>
+  </si>
+  <si>
+    <t>42.6 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-357</t>
+  </si>
+  <si>
+    <t>45.5 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-358</t>
+  </si>
+  <si>
+    <t>49.4 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-51-01-359</t>
+  </si>
+  <si>
+    <t>56.1 cc Pompa</t>
+  </si>
+  <si>
+    <t>150-52-13-012</t>
+  </si>
+  <si>
+    <t>2.2 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>150-52-13-013</t>
+  </si>
+  <si>
+    <t>3 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>150-52-13-014</t>
+  </si>
+  <si>
+    <t>4 kW B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-016</t>
+  </si>
+  <si>
+    <t>5.5 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>5.5 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-017</t>
+  </si>
+  <si>
+    <t>7.5 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-213</t>
+  </si>
+  <si>
+    <t>11 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-018</t>
+  </si>
+  <si>
+    <t>11 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-019</t>
+  </si>
+  <si>
+    <t>15 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-196</t>
+  </si>
+  <si>
+    <t>18.5 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-020</t>
+  </si>
+  <si>
+    <t>22 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>150-52-13-206</t>
+  </si>
+  <si>
+    <t>ELEKTRİK MOTORU 37 KW 1500 d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>İKİ TANE AYNI MOTOR VAR</t>
+  </si>
+  <si>
+    <t>150-52-13-199</t>
+  </si>
+  <si>
+    <t>37 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>4 - 5.5 kW (Kompakt) Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-579</t>
+  </si>
+  <si>
+    <t>1PN28 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>5.5 - 7.5 - 11 kW Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-576</t>
+  </si>
+  <si>
+    <t>1PN38 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>15 - 18.5 - 22 - 37 kW Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-560</t>
+  </si>
+  <si>
+    <t>1PN42 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>4 - 5.5 kW (Kompakt) Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-580</t>
+  </si>
+  <si>
+    <t>2PN28 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>5.5 - 7.5 - 11 kW Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-575</t>
+  </si>
+  <si>
+    <t>2PN38 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>15 - 18.5 - 22 - 37 kW Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>150-51-06-561</t>
+  </si>
+  <si>
+    <t>2PN42 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>150-50-21-078</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 100 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-50-21-588</t>
+  </si>
+  <si>
+    <t>CIVATA ANAHTAR BASLI M12 50 MM BEYAZ (DIN 933 )</t>
+  </si>
+  <si>
+    <t>150-51-06-506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-K 250 KAMPANA </t>
+  </si>
+  <si>
+    <t>1PN28 KAPLİN TAKIMI</t>
+  </si>
+  <si>
+    <t>EMİŞ FİLTRE HPF-45 45 LT/DK</t>
+  </si>
+  <si>
+    <t>150-51-09-099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8 KAYNAKLI MANŞON </t>
+  </si>
+  <si>
+    <t>150-51-09-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 KAYNAKLI MANŞON </t>
+  </si>
+  <si>
+    <t>150-53-08-005</t>
+  </si>
+  <si>
+    <t>1/2 REDÜKSİYON</t>
+  </si>
+  <si>
+    <t>150-51-09-017</t>
+  </si>
+  <si>
+    <t>REKOR Ø10 3/8"</t>
+  </si>
+  <si>
+    <t>150-53-08-502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 KÖR TAPA </t>
+  </si>
+  <si>
+    <t>KUYRUKLU DİRSEK</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 30 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-51-04-068</t>
+  </si>
+  <si>
+    <t>HIZ AYAR VALFİ 1/2" KOMPANZASYONLU VRFU 90° 1/2"  MM2000 128 (BASINÇ DUYARLI)</t>
+  </si>
+  <si>
+    <t>150-51-04-051</t>
+  </si>
+  <si>
+    <t>HIZ AYAR VALFİ 3/8" ÇEKLİ</t>
+  </si>
+  <si>
+    <t>150-51-05-054</t>
+  </si>
+  <si>
+    <t>POPET BLOĞU 3/8" BANGİOSUZ</t>
+  </si>
+  <si>
+    <t>150-51-05-053</t>
+  </si>
+  <si>
+    <t>İNİŞTE TEK HIZ BLOK ALTTAN BAĞLANTILI 24V POPETLİ 8/2</t>
+  </si>
+  <si>
+    <t>150-51-10-803</t>
+  </si>
+  <si>
+    <t>MANOMETRE ALT.GİR. 1/4"GİLİSERİNLİ Q63MM 315BAR</t>
+  </si>
+  <si>
+    <t>150-51-06-904</t>
+  </si>
+  <si>
+    <t>BOLC-2024 SOĞUTMA RADYATÖRÜ FANLI 220VAC 50/60 Hz</t>
+  </si>
+  <si>
+    <t>150-51-01-708</t>
+  </si>
+  <si>
+    <t>POMPA TANDEM 28.1+4.5 CC (SAĞ DÖNÜŞLÜ)</t>
+  </si>
+  <si>
+    <t>150-51-10-124</t>
+  </si>
+  <si>
+    <t>ÇEK VALF 3/4" V0620</t>
+  </si>
+  <si>
+    <t>150-51-04-025</t>
+  </si>
+  <si>
+    <t>VALF AÇIK MERKEZ NG6 24V RH06021-24V</t>
+  </si>
+  <si>
+    <t>150-51-05-036</t>
+  </si>
+  <si>
+    <t>NG6 TEKLİ EMNİYETLİ VALF BLOĞU (HİDROS)</t>
+  </si>
+  <si>
+    <t>150-51-07-209</t>
+  </si>
+  <si>
+    <t>DEPO KAPAK SVDK STANDART VİDALI DEPO KAPAK</t>
+  </si>
+  <si>
+    <t>150-51-08-001</t>
+  </si>
+  <si>
+    <t>YAĞ SEVİYE GÖSTERGESİ HB-127</t>
+  </si>
+  <si>
+    <t>150-51-06-907</t>
+  </si>
+  <si>
+    <t>0-90 DERECE AYARLI, ½ PASOLU, DALMA BOYU 25CM  ALP MARKA TERMOSTAT</t>
+  </si>
+  <si>
+    <t>150-51-04-012</t>
+  </si>
+  <si>
+    <t>VALF KAPALI MERKEZ POPET VALF BOBİNLİ V1 POPET</t>
+  </si>
+  <si>
+    <t>MOTOR  2.2 kw 380v  B5</t>
+  </si>
+  <si>
+    <t>Tek Hız Blok</t>
+  </si>
+  <si>
+    <t>150-51-05-048 (EN)</t>
+  </si>
+  <si>
+    <t>1 Grubu Pompa Nipel</t>
+  </si>
+  <si>
+    <t>2 Grubu Pompa Nipel</t>
+  </si>
+  <si>
+    <t>150-51-09-423</t>
+  </si>
+  <si>
+    <t>3/4 x 20 Cm Boru</t>
+  </si>
+  <si>
+    <t>M6 x 100 İmbus Civata</t>
+  </si>
+  <si>
+    <t>150-51-10-797</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Manometre Nipeli</t>
+  </si>
+  <si>
+    <t>150-51-10-798</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Pimli Ters Dirsek</t>
+  </si>
+  <si>
+    <t>MANOMETRE REKORU 1/4-Ø10 PİMLİ</t>
+  </si>
+  <si>
+    <t>150-53-08-503</t>
+  </si>
+  <si>
+    <t>1/4 Alyan Başlı Kör Tapa</t>
+  </si>
+  <si>
+    <t>Çift Hız Blok</t>
+  </si>
+  <si>
+    <t>150-51-05-051</t>
+  </si>
+  <si>
+    <t>Kilitli Blok || Çift Hız Blok</t>
+  </si>
+  <si>
+    <t>150-51-05-069</t>
+  </si>
+  <si>
+    <t>Kilitli Blok Çift Hız</t>
+  </si>
+  <si>
+    <t>150-51-09-093</t>
+  </si>
+  <si>
+    <t>3/4 - M24 Nipel</t>
+  </si>
+  <si>
+    <t>150-51-09-087</t>
+  </si>
+  <si>
+    <t>3/4 - M30 Nipel</t>
+  </si>
+  <si>
+    <t>150-50-21-082</t>
+  </si>
+  <si>
+    <t>M6 x 120 İmbus Civata</t>
+  </si>
+  <si>
+    <t>150-51-09-019</t>
+  </si>
+  <si>
+    <t>1/2 Ø10 Nipel</t>
+  </si>
+  <si>
+    <t>150-51-09-016</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Nipel</t>
+  </si>
+  <si>
     <t>Kompanzasyon + İnişte Tek Hız</t>
-  </si>
-  <si>
-    <t>Malzeme Kodu</t>
-  </si>
-  <si>
-    <t>Açıklama</t>
-  </si>
-  <si>
-    <t>Adet</t>
-  </si>
-  <si>
-    <t>250 lik Kampana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150-51-06-506 </t>
-  </si>
-  <si>
-    <t>1K-250 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>KAMPANA (SERİ) 2K-250 GR30 SERİSİ</t>
-  </si>
-  <si>
-    <t>150-50-21-590</t>
-  </si>
-  <si>
-    <t>M12 x 60 - AKB Civata</t>
-  </si>
-  <si>
-    <t>150-50-23-007</t>
-  </si>
-  <si>
-    <t>M12 Somun</t>
-  </si>
-  <si>
-    <t>150-50-24-026</t>
-  </si>
-  <si>
-    <t>M12 Pul</t>
-  </si>
-  <si>
-    <t>300 lük Kampana</t>
-  </si>
-  <si>
-    <t>150-51-06-507</t>
-  </si>
-  <si>
-    <t>1K-300 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>KAMPANA (SERİ) 2K-300 GR30 SERİSİ</t>
-  </si>
-  <si>
-    <t>350 lik Kampana</t>
-  </si>
-  <si>
-    <t>150-51-06-508</t>
-  </si>
-  <si>
-    <t>1K-350 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>KAMPANA (SERİ) 2K-350 GR30 SERİSİ</t>
-  </si>
-  <si>
-    <t>150-50-21-639</t>
-  </si>
-  <si>
-    <t>M16 x 60 - AKB Civata</t>
-  </si>
-  <si>
-    <t>150-50-23-009</t>
-  </si>
-  <si>
-    <t>M16 Somun</t>
-  </si>
-  <si>
-    <t>150-50-24-008</t>
-  </si>
-  <si>
-    <t>M16 Pul</t>
-  </si>
-  <si>
-    <t>400 lük Kampana</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1K-400 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>KAMPANA (SERİ) 2K-400 GR30 SERİSİ</t>
-  </si>
-  <si>
-    <t>150-51-06-510</t>
-  </si>
-  <si>
-    <t>2K-250 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>150-51-06-511</t>
-  </si>
-  <si>
-    <t>2K-300 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>150-51-06-512</t>
-  </si>
-  <si>
-    <t>2K-350 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>150-51-06-518</t>
-  </si>
-  <si>
-    <t>2K-400 GR30 Kampana</t>
-  </si>
-  <si>
-    <t>150-51-01-305</t>
-  </si>
-  <si>
-    <t>9.5 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-50-21-065</t>
-  </si>
-  <si>
-    <t>M6 x 30 İmbus Civata</t>
-  </si>
-  <si>
-    <t>150-50-24-003</t>
-  </si>
-  <si>
-    <t>M6 Pul</t>
-  </si>
-  <si>
-    <t>150-51-06-396</t>
-  </si>
-  <si>
-    <t>40 x 1/2 Düz Adaptör Emiş</t>
-  </si>
-  <si>
-    <t>POMPA ADAPTÖRÜ 1/2 Ø40</t>
-  </si>
-  <si>
-    <t>150-53-08-651</t>
-  </si>
-  <si>
-    <t>1/2 Galvanizli Kuyruklu Dirsek</t>
-  </si>
-  <si>
-    <t>150-51-06-413</t>
-  </si>
-  <si>
-    <t>30 x 1/2 Dirsek Adaptör Pompa</t>
-  </si>
-  <si>
-    <t>POMPA ADAPTÖRLERİ DPA-30 90 ° DİRSEK 1/2"</t>
-  </si>
-  <si>
-    <t>150-51-09-080</t>
-  </si>
-  <si>
-    <t>1/2 x M24 Nipel</t>
-  </si>
-  <si>
-    <t>REKOR M24 1/2"</t>
-  </si>
-  <si>
-    <t>1/2 x 10 cm Boru</t>
-  </si>
-  <si>
-    <t>150-51-07-004</t>
-  </si>
-  <si>
-    <t>45 Lt Emiş Filtresi</t>
-  </si>
-  <si>
-    <t>150-53-08-011</t>
-  </si>
-  <si>
-    <t>1 - 1/2 Galvanizli Redüksiyon</t>
-  </si>
-  <si>
-    <t>150-51-01-306</t>
-  </si>
-  <si>
-    <t>11.9 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-308</t>
-  </si>
-  <si>
-    <t>14 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-309</t>
-  </si>
-  <si>
-    <t>14.6 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-310</t>
-  </si>
-  <si>
-    <t>16.8 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-433</t>
-  </si>
-  <si>
-    <t>POMPA ADAPTÖRLERİ DPA-30 1/2 90 ° DİRSEK</t>
-  </si>
-  <si>
-    <t>150-51-01-311</t>
-  </si>
-  <si>
-    <t>19.2 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-399</t>
-  </si>
-  <si>
-    <t>40 x 3/4 Dirsek Adaptör Emiş</t>
-  </si>
-  <si>
-    <t>POMPA ADAPTÖRÜ 3/4 Ø40</t>
-  </si>
-  <si>
-    <t>1/2 - M24 Nipel</t>
-  </si>
-  <si>
-    <t>3/4 x 10 cm Boru</t>
-  </si>
-  <si>
-    <t>150-51-07-005</t>
-  </si>
-  <si>
-    <t>65 Lt Emiş Filtresi</t>
-  </si>
-  <si>
-    <t>150-53-08-014</t>
-  </si>
-  <si>
-    <t>1 - 1/2 - 3/4 Galvanizli Redüksiyon</t>
-  </si>
-  <si>
-    <t>hidirektor</t>
-  </si>
-  <si>
-    <t>150-51-01-312</t>
-  </si>
-  <si>
-    <t>22.9 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-313</t>
-  </si>
-  <si>
-    <t>28.1 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-50-21-063</t>
-  </si>
-  <si>
-    <t>M6 x 20 İmbus Civata</t>
-  </si>
-  <si>
-    <t>150-51-01-354</t>
-  </si>
-  <si>
-    <t>33.3 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-50-21-097</t>
-  </si>
-  <si>
-    <t>M8 x 40 İmbus Civata</t>
-  </si>
-  <si>
-    <t>150-50-24-004</t>
-  </si>
-  <si>
-    <t>M8 Pul</t>
-  </si>
-  <si>
-    <t>150-51-06-443</t>
-  </si>
-  <si>
-    <t>51 x 3/4 Düz Adaptör Emiş</t>
-  </si>
-  <si>
-    <t>150-53-08-652</t>
-  </si>
-  <si>
-    <t>3/4 Galvanizli Kuyruklu Dirsek</t>
-  </si>
-  <si>
-    <t>40 x 1/2 Düz Adaptör Pompa</t>
-  </si>
-  <si>
-    <t>1/2 - M30 Nipel</t>
-  </si>
-  <si>
-    <t>150-51-07-006</t>
-  </si>
-  <si>
-    <t>90 Lt Emiş Filtresi</t>
-  </si>
-  <si>
-    <t>150-51-01-355</t>
-  </si>
-  <si>
-    <t>37.9 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-356</t>
-  </si>
-  <si>
-    <t>42.6 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-357</t>
-  </si>
-  <si>
-    <t>45.5 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-358</t>
-  </si>
-  <si>
-    <t>49.4 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-51-01-359</t>
-  </si>
-  <si>
-    <t>56.1 cc Pompa</t>
-  </si>
-  <si>
-    <t>150-52-13-012</t>
-  </si>
-  <si>
-    <t>2.2 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
-  </si>
-  <si>
-    <t>150-52-13-013</t>
-  </si>
-  <si>
-    <t>3 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
-  </si>
-  <si>
-    <t>150-52-13-014</t>
-  </si>
-  <si>
-    <t>4 kW B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-016</t>
-  </si>
-  <si>
-    <t>5.5 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>5.5 kW (Kompakt)  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-017</t>
-  </si>
-  <si>
-    <t>7.5 kW (Kompakt)  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-213</t>
-  </si>
-  <si>
-    <t>11 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-018</t>
-  </si>
-  <si>
-    <t>11 kW (Kompakt)  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-019</t>
-  </si>
-  <si>
-    <t>15 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-196</t>
-  </si>
-  <si>
-    <t>18.5 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-020</t>
-  </si>
-  <si>
-    <t>22 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>150-52-13-206</t>
-  </si>
-  <si>
-    <t>ELEKTRİK MOTORU 37 KW 1500 d/dk 380V B5 FLANŞLI VOLT</t>
-  </si>
-  <si>
-    <t>İKİ TANE AYNI MOTOR VAR</t>
-  </si>
-  <si>
-    <t>150-52-13-199</t>
-  </si>
-  <si>
-    <t>37 kW  B5 Flanşlı Motor</t>
-  </si>
-  <si>
-    <t>4 - 5.5 kW (Kompakt) Motor 1 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-579</t>
-  </si>
-  <si>
-    <t>1PN28 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>5.5 - 7.5 - 11 kW Motor 1 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-576</t>
-  </si>
-  <si>
-    <t>1PN38 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>15 - 18.5 - 22 - 37 kW Motor 1 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-560</t>
-  </si>
-  <si>
-    <t>1PN42 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>4 - 5.5 kW (Kompakt) Motor 2 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-580</t>
-  </si>
-  <si>
-    <t>2PN28 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>5.5 - 7.5 - 11 kW Motor 2 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-575</t>
-  </si>
-  <si>
-    <t>2PN38 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>15 - 18.5 - 22 - 37 kW Motor 2 Grubu Pompa</t>
-  </si>
-  <si>
-    <t>150-51-06-561</t>
-  </si>
-  <si>
-    <t>2PN42 İşlenmiş Kaplin Takımı</t>
-  </si>
-  <si>
-    <t>150-50-21-078</t>
-  </si>
-  <si>
-    <t>CIVATA IMBUS M6 100 MM BEYAZ (DIN 912)</t>
-  </si>
-  <si>
-    <t>150-50-21-588</t>
-  </si>
-  <si>
-    <t>CIVATA ANAHTAR BASLI M12 50 MM BEYAZ (DIN 933 )</t>
-  </si>
-  <si>
-    <t>150-51-06-506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-K 250 KAMPANA </t>
-  </si>
-  <si>
-    <t>1PN28 KAPLİN TAKIMI</t>
-  </si>
-  <si>
-    <t>EMİŞ FİLTRE HPF-45 45 LT/DK</t>
-  </si>
-  <si>
-    <t>150-51-09-099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/8 KAYNAKLI MANŞON </t>
-  </si>
-  <si>
-    <t>150-51-09-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 KAYNAKLI MANŞON </t>
-  </si>
-  <si>
-    <t>150-53-08-005</t>
-  </si>
-  <si>
-    <t>1/2 REDÜKSİYON</t>
-  </si>
-  <si>
-    <t>150-51-09-017</t>
-  </si>
-  <si>
-    <t>REKOR Ø10 3/8"</t>
-  </si>
-  <si>
-    <t>150-53-08-502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 KÖR TAPA </t>
-  </si>
-  <si>
-    <t>KUYRUKLU DİRSEK</t>
-  </si>
-  <si>
-    <t>CIVATA IMBUS M6 30 MM BEYAZ (DIN 912)</t>
-  </si>
-  <si>
-    <t>150-51-04-068</t>
-  </si>
-  <si>
-    <t>HIZ AYAR VALFİ 1/2" KOMPANZASYONLU VRFU 90° 1/2"  MM2000 128 (BASINÇ DUYARLI)</t>
-  </si>
-  <si>
-    <t>150-51-04-051</t>
-  </si>
-  <si>
-    <t>HIZ AYAR VALFİ 3/8" ÇEKLİ</t>
-  </si>
-  <si>
-    <t>150-51-05-054</t>
-  </si>
-  <si>
-    <t>POPET BLOĞU 3/8" BANGİOSUZ</t>
-  </si>
-  <si>
-    <t>150-51-05-053</t>
-  </si>
-  <si>
-    <t>İNİŞTE TEK HIZ BLOK ALTTAN BAĞLANTILI 24V POPETLİ 8/2</t>
-  </si>
-  <si>
-    <t>150-51-10-803</t>
-  </si>
-  <si>
-    <t>MANOMETRE ALT.GİR. 1/4"GİLİSERİNLİ Q63MM 315BAR</t>
-  </si>
-  <si>
-    <t>150-51-06-904</t>
-  </si>
-  <si>
-    <t>BOLC-2024 SOĞUTMA RADYATÖRÜ FANLI 220VAC 50/60 Hz</t>
-  </si>
-  <si>
-    <t>150-51-01-708</t>
-  </si>
-  <si>
-    <t>POMPA TANDEM 28.1+4.5 CC (SAĞ DÖNÜŞLÜ)</t>
-  </si>
-  <si>
-    <t>150-51-10-124</t>
-  </si>
-  <si>
-    <t>ÇEK VALF 3/4" V0620</t>
-  </si>
-  <si>
-    <t>150-51-04-025</t>
-  </si>
-  <si>
-    <t>VALF AÇIK MERKEZ NG6 24V RH06021-24V</t>
-  </si>
-  <si>
-    <t>150-51-05-036</t>
-  </si>
-  <si>
-    <t>NG6 TEKLİ EMNİYETLİ VALF BLOĞU (HİDROS)</t>
-  </si>
-  <si>
-    <t>150-51-07-209</t>
-  </si>
-  <si>
-    <t>DEPO KAPAK SVDK STANDART VİDALI DEPO KAPAK</t>
-  </si>
-  <si>
-    <t>150-51-08-001</t>
-  </si>
-  <si>
-    <t>YAĞ SEVİYE GÖSTERGESİ HB-127</t>
-  </si>
-  <si>
-    <t>150-51-06-907</t>
-  </si>
-  <si>
-    <t>0-90 DERECE AYARLI, ½ PASOLU, DALMA BOYU 25CM  ALP MARKA TERMOSTAT</t>
-  </si>
-  <si>
-    <t>150-51-04-012</t>
-  </si>
-  <si>
-    <t>VALF KAPALI MERKEZ POPET VALF BOBİNLİ V1 POPET</t>
-  </si>
-  <si>
-    <t>MOTOR  2.2 kw 380v  B5</t>
-  </si>
-  <si>
-    <t>Tek Hız Blok</t>
-  </si>
-  <si>
-    <t>150-51-05-048 (EN)</t>
-  </si>
-  <si>
-    <t>1 Grubu Pompa Nipel</t>
-  </si>
-  <si>
-    <t>2 Grubu Pompa Nipel</t>
-  </si>
-  <si>
-    <t>150-51-09-423</t>
-  </si>
-  <si>
-    <t>3/4 x 20 Cm Boru</t>
-  </si>
-  <si>
-    <t>M6 x 100 İmbus Civata</t>
-  </si>
-  <si>
-    <t>150-51-10-797</t>
-  </si>
-  <si>
-    <t>1/4 Ø10 Manometre Nipeli</t>
-  </si>
-  <si>
-    <t>150-51-10-798</t>
-  </si>
-  <si>
-    <t>1/4 Ø10 Pimli Ters Dirsek</t>
-  </si>
-  <si>
-    <t>MANOMETRE REKORU 1/4-Ø10 PİMLİ</t>
-  </si>
-  <si>
-    <t>150-53-08-503</t>
-  </si>
-  <si>
-    <t>1/4 Alyan Başlı Kör Tapa</t>
-  </si>
-  <si>
-    <t>Çift Hız Blok</t>
-  </si>
-  <si>
-    <t>150-51-05-051</t>
-  </si>
-  <si>
-    <t>Kilitli Blok || Çift Hız Blok</t>
-  </si>
-  <si>
-    <t>150-51-05-069</t>
-  </si>
-  <si>
-    <t>Kilitli Blok Çift Hız</t>
-  </si>
-  <si>
-    <t>150-51-09-093</t>
-  </si>
-  <si>
-    <t>3/4 - M24 Nipel</t>
-  </si>
-  <si>
-    <t>150-51-09-087</t>
-  </si>
-  <si>
-    <t>3/4 - M30 Nipel</t>
-  </si>
-  <si>
-    <t>150-50-21-082</t>
-  </si>
-  <si>
-    <t>M6 x 120 İmbus Civata</t>
-  </si>
-  <si>
-    <t>150-51-09-019</t>
-  </si>
-  <si>
-    <t>1/2 Ø10 Nipel</t>
-  </si>
-  <si>
-    <t>150-51-09-016</t>
-  </si>
-  <si>
-    <t>1/4 Ø10 Nipel</t>
   </si>
   <si>
     <t>150-51-05-100</t>
@@ -2718,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2739,11 +2742,6 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2752,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2765,21 +2763,26 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3257,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6003,13 +6006,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" t="s">
         <v>349</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -6103,7 +6106,7 @@
         <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -6117,7 +6120,7 @@
         <v>293</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6125,24 +6128,24 @@
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -6161,24 +6164,24 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -6189,7 +6192,7 @@
         <v>291</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6197,10 +6200,10 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6208,10 +6211,10 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6219,10 +6222,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6414,13 +6417,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
         <v>372</v>
-      </c>
-      <c r="C2" t="s">
-        <v>371</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6431,7 +6434,7 @@
         <v>347</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6439,10 +6442,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6450,10 +6453,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6493,10 +6496,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6507,7 +6510,7 @@
         <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6518,7 +6521,7 @@
         <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6526,13 +6529,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6543,10 +6546,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6554,10 +6557,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6565,10 +6568,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6576,10 +6579,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6587,10 +6590,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6598,10 +6601,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6609,10 +6612,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6620,10 +6623,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6631,10 +6634,10 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6642,10 +6645,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -6668,27 +6671,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6703,7 +6706,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -6731,27 +6734,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6766,7 +6769,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6789,12 +6792,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6804,12 +6807,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6859,7 +6862,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6882,37 +6885,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6935,42 +6938,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6993,27 +6996,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7036,27 +7039,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7086,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7091,10 +7094,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7102,10 +7105,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7113,10 +7116,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7124,10 +7127,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7138,7 +7141,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7146,10 +7149,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7157,10 +7160,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7171,7 +7174,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7235,7 +7238,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7243,10 +7246,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7254,10 +7257,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7276,10 +7279,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7290,7 +7293,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7298,10 +7301,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7312,7 +7315,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7339,10 +7342,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7350,10 +7353,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -7364,7 +7367,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7372,10 +7375,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7383,10 +7386,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7397,7 +7400,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7408,7 +7411,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7419,7 +7422,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7430,7 +7433,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7441,7 +7444,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -7452,7 +7455,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7463,7 +7466,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7474,7 +7477,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -7485,7 +7488,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -7493,10 +7496,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7523,10 +7526,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7534,10 +7537,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -7548,7 +7551,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -7556,10 +7559,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7567,10 +7570,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -7581,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -7592,7 +7595,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -7603,7 +7606,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -7614,7 +7617,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7625,7 +7628,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7636,7 +7639,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7647,7 +7650,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7658,7 +7661,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7669,7 +7672,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7677,10 +7680,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7705,10 +7708,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7716,10 +7719,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7727,10 +7730,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7738,10 +7741,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7749,10 +7752,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7760,10 +7763,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7771,10 +7774,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7800,10 +7803,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7811,10 +7814,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7822,10 +7825,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7833,10 +7836,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7844,10 +7847,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7855,10 +7858,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7866,10 +7869,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7877,10 +7880,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7907,10 +7910,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -7918,10 +7921,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.95">
       <c r="A2" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7929,10 +7932,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.95">
       <c r="A3" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7940,10 +7943,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.95">
       <c r="A4" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7962,10 +7965,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.95">
       <c r="A6" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -7997,10 +8000,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8008,7 +8011,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>317</v>
@@ -8019,7 +8022,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>293</v>
@@ -8041,10 +8044,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8052,10 +8055,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8063,10 +8066,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8085,10 +8088,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8096,10 +8099,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8107,10 +8110,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8142,10 +8145,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>317</v>
@@ -8164,7 +8167,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>293</v>
@@ -8186,10 +8189,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8197,10 +8200,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8208,10 +8211,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8230,10 +8233,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8241,10 +8244,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8252,10 +8255,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8282,10 +8285,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8293,10 +8296,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8304,10 +8307,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -8315,10 +8318,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8337,10 +8340,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8348,10 +8351,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8383,10 +8386,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8394,7 +8397,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>317</v>
@@ -8405,7 +8408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>293</v>
@@ -8427,10 +8430,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8438,10 +8441,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8449,10 +8452,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8471,10 +8474,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8482,10 +8485,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8493,10 +8496,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8504,10 +8507,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8515,10 +8518,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8633,10 +8636,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8644,7 +8647,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>317</v>
@@ -8655,7 +8658,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>293</v>
@@ -8677,10 +8680,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8688,10 +8691,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8699,10 +8702,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8721,10 +8724,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8732,10 +8735,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8743,10 +8746,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8754,10 +8757,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8765,10 +8768,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8795,10 +8798,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8806,10 +8809,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8817,10 +8820,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -8828,10 +8831,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8839,10 +8842,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>293</v>
@@ -8861,10 +8864,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8872,10 +8875,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -8883,10 +8886,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -8894,10 +8897,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -8924,10 +8927,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -8935,7 +8938,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>313</v>
@@ -8943,34 +8946,34 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8978,10 +8981,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8989,26 +8992,26 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9032,7 +9035,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>114</v>
@@ -9043,7 +9046,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>155</v>
@@ -9054,10 +9057,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -9065,7 +9068,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>157</v>
@@ -9076,10 +9079,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -9087,10 +9090,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -9098,10 +9101,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -9109,10 +9112,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9120,10 +9123,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -9131,10 +9134,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -9161,10 +9164,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -9172,10 +9175,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9183,10 +9186,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9213,10 +9216,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -9224,10 +9227,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9235,10 +9238,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9265,10 +9268,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -9276,10 +9279,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9287,10 +9290,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -9317,10 +9320,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -9328,10 +9331,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>157</v>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7CD4DA-2929-4365-BF17-415DDC0D69C1}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FFEF5C-2E25-407B-B0F2-1DC67A7E570C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="555">
   <si>
     <t>tankName</t>
   </si>
@@ -418,12 +418,6 @@
   </si>
   <si>
     <t>İnişte Çift Hız</t>
-  </si>
-  <si>
-    <t>İnişte Tek Hız + Kompanzasyon</t>
-  </si>
-  <si>
-    <t>Kilitli Blok</t>
   </si>
   <si>
     <t>Malzeme Kodu</t>
@@ -2723,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2750,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2774,16 +2768,6 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2810,38 +2794,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2849,10 +2833,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2860,10 +2844,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2871,27 +2855,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2899,10 +2883,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2910,10 +2894,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2921,27 +2905,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2949,10 +2933,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2960,10 +2944,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2971,27 +2955,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2999,10 +2983,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3010,10 +2994,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3042,38 +3026,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -3081,10 +3065,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3092,10 +3076,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3103,27 +3087,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3131,10 +3115,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3142,10 +3126,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3153,27 +3137,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3181,10 +3165,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3192,10 +3176,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3203,27 +3187,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -3231,10 +3215,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3242,10 +3226,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3275,13 +3259,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3289,10 +3273,10 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3300,10 +3284,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3311,10 +3295,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3322,24 +3306,24 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3347,38 +3331,38 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3386,10 +3370,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3397,10 +3381,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3411,10 +3395,10 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3422,10 +3406,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3433,10 +3417,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3444,10 +3428,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3455,10 +3439,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3466,10 +3450,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3477,10 +3461,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3488,10 +3472,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3499,10 +3483,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3510,10 +3494,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3524,10 +3508,10 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3535,10 +3519,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3546,10 +3530,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3557,10 +3541,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3568,10 +3552,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3579,10 +3563,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3590,10 +3574,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3601,10 +3585,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3612,10 +3596,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3623,10 +3607,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3637,10 +3621,10 @@
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3648,10 +3632,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3659,10 +3643,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3670,10 +3654,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3681,10 +3665,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3692,10 +3676,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3703,10 +3687,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3714,10 +3698,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3725,10 +3709,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3736,10 +3720,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3750,10 +3734,10 @@
         <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3761,10 +3745,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3772,10 +3756,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -3783,10 +3767,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3794,10 +3778,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3805,24 +3789,24 @@
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3830,10 +3814,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3841,10 +3825,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="B50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3852,10 +3836,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3866,10 +3850,10 @@
         <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3877,10 +3861,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="B53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3888,10 +3872,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3899,24 +3883,24 @@
     </row>
     <row r="55" spans="1:5">
       <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>187</v>
-      </c>
-      <c r="C55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="B56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3924,10 +3908,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="B57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3935,10 +3919,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3946,10 +3930,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3957,10 +3941,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="B60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3968,10 +3952,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="B61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3982,10 +3966,10 @@
         <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3993,10 +3977,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="B63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -4004,10 +3988,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="B64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -4015,10 +3999,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="B65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4026,10 +4010,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="B66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4037,10 +4021,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="B67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4048,10 +4032,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4059,10 +4043,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4070,10 +4054,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4081,10 +4065,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="B71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4095,10 +4079,10 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4106,10 +4090,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4117,10 +4101,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4128,10 +4112,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4139,10 +4123,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="B76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4150,10 +4134,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4161,10 +4145,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="B78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4172,10 +4156,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4183,10 +4167,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4194,10 +4178,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="B81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4205,10 +4189,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="B82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4219,10 +4203,10 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4230,10 +4214,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="B84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4241,10 +4225,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="B85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4252,10 +4236,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="B86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4263,10 +4247,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="B87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4274,10 +4258,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="B88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4285,10 +4269,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="B89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4296,10 +4280,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="B90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4307,10 +4291,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="B91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4318,10 +4302,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="B92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4332,10 +4316,10 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4343,10 +4327,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="B94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4354,10 +4338,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="B95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4365,10 +4349,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="B96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4376,10 +4360,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="B97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4387,10 +4371,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4398,10 +4382,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4409,10 +4393,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4420,10 +4404,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="B101" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4431,10 +4415,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="B102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4445,10 +4429,10 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4456,10 +4440,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="B104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -4467,10 +4451,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="B105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -4478,10 +4462,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="B106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4489,10 +4473,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="B107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4500,10 +4484,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="B108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4511,10 +4495,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="B109" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4522,10 +4506,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="B110" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4533,10 +4517,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="B111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4544,10 +4528,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="B112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4558,10 +4542,10 @@
         <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4569,10 +4553,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="B114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -4580,10 +4564,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="B115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -4591,10 +4575,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="B116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4602,10 +4586,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="B117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4613,10 +4597,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="B118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4624,10 +4608,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="B119" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4635,10 +4619,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="B120" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4646,10 +4630,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="B121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4657,10 +4641,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="B122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4671,10 +4655,10 @@
         <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -4682,10 +4666,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="B124" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4693,10 +4677,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="B125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -4704,10 +4688,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="B126" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4715,10 +4699,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="B127" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4726,10 +4710,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="B128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4737,10 +4721,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4748,10 +4732,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="B130" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4759,10 +4743,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="B131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4770,10 +4754,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="B132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4784,10 +4768,10 @@
         <v>101</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4795,10 +4779,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="B134" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4806,10 +4790,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="B135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -4817,10 +4801,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="B136" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4828,10 +4812,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="B137" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4839,10 +4823,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="B138" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4850,10 +4834,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4861,10 +4845,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4872,10 +4856,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="B141" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4883,10 +4867,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="B142" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4897,10 +4881,10 @@
         <v>102</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C143" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4908,10 +4892,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="B144" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -4919,10 +4903,10 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -4930,10 +4914,10 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4941,10 +4925,10 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4952,10 +4936,10 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4963,10 +4947,10 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4974,10 +4958,10 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4985,10 +4969,10 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4996,10 +4980,10 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5028,13 +5012,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5042,10 +5026,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5056,10 +5040,10 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5070,10 +5054,10 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5084,10 +5068,10 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5098,10 +5082,10 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5112,10 +5096,10 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5126,10 +5110,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5140,10 +5124,10 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5154,10 +5138,10 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5168,10 +5152,10 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5182,10 +5166,10 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5196,26 +5180,26 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5244,24 +5228,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
         <v>253</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5269,13 +5253,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" t="s">
-        <v>258</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5283,13 +5267,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
         <v>259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5297,13 +5281,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
         <v>262</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" t="s">
-        <v>264</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5311,13 +5295,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
         <v>265</v>
-      </c>
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5325,13 +5309,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
         <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
-        <v>270</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5359,21 +5343,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -5381,10 +5365,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -5392,10 +5376,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -5403,10 +5387,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -5414,10 +5398,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -5425,10 +5409,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -5436,10 +5420,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -5447,10 +5431,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -5458,10 +5442,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -5469,10 +5453,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -5480,10 +5464,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -5491,10 +5475,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -5502,10 +5486,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -5513,10 +5497,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -5524,10 +5508,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
@@ -5535,10 +5519,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -5546,10 +5530,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -5557,10 +5541,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -5568,10 +5552,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -5579,10 +5563,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -5590,10 +5574,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -5601,10 +5585,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5612,10 +5596,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -5623,10 +5607,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -5634,10 +5618,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -5645,10 +5629,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -5656,10 +5640,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -5689,41 +5673,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5731,13 +5715,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5745,10 +5729,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5756,10 +5740,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5767,10 +5751,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -5778,24 +5762,24 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>329</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -5803,13 +5787,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5817,13 +5801,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -5831,13 +5815,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5845,10 +5829,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5856,10 +5840,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5867,10 +5851,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5878,27 +5862,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>329</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" t="s">
         <v>336</v>
-      </c>
-      <c r="B25" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" t="s">
-        <v>338</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -5906,13 +5890,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5920,13 +5904,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5934,13 +5918,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5948,13 +5932,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5962,10 +5946,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5973,10 +5957,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -5984,10 +5968,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5995,10 +5979,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -6006,13 +5990,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -6020,13 +6004,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -6034,13 +6018,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -6048,10 +6032,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -6059,10 +6043,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -6070,10 +6054,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6081,10 +6065,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -6092,10 +6076,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -6103,24 +6087,24 @@
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6128,24 +6112,24 @@
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>353</v>
-      </c>
-      <c r="C47" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6153,10 +6137,10 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -6164,24 +6148,24 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -6189,10 +6173,10 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6200,10 +6184,10 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6211,10 +6195,10 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6222,10 +6206,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6406,24 +6390,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6431,10 +6415,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6442,10 +6426,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6453,10 +6437,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6485,21 +6469,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6507,10 +6491,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6518,10 +6502,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6529,13 +6513,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
         <v>383</v>
-      </c>
-      <c r="B5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" t="s">
-        <v>385</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6546,10 +6530,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6557,10 +6541,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6568,10 +6552,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6579,10 +6563,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6590,10 +6574,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6601,10 +6585,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6612,10 +6596,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6623,10 +6607,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6634,10 +6618,10 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6645,10 +6629,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6671,27 +6655,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6706,7 +6690,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -6734,27 +6718,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6769,7 +6753,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6792,12 +6776,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6807,12 +6791,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -6862,7 +6846,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6885,37 +6869,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6938,42 +6922,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6996,27 +6980,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -7039,27 +7023,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7086,18 +7070,18 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7105,10 +7089,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7116,10 +7100,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7127,10 +7111,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7141,7 +7125,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7149,10 +7133,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7160,10 +7144,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7174,7 +7158,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7238,18 +7222,18 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7257,10 +7241,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7268,10 +7252,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7279,10 +7263,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7293,7 +7277,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7301,10 +7285,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7315,7 +7299,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7342,21 +7326,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -7367,7 +7351,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7375,10 +7359,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7386,10 +7370,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7400,7 +7384,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7411,7 +7395,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7422,7 +7406,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7433,7 +7417,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7444,7 +7428,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -7455,7 +7439,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7466,7 +7450,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7477,7 +7461,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -7488,7 +7472,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -7496,10 +7480,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7526,21 +7510,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -7551,7 +7535,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -7559,10 +7543,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7570,10 +7554,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -7584,7 +7568,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -7595,7 +7579,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -7606,7 +7590,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -7617,7 +7601,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7628,7 +7612,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7639,7 +7623,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7650,7 +7634,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7661,7 +7645,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7672,7 +7656,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7680,10 +7664,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7708,21 +7692,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7730,10 +7714,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7741,10 +7725,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7752,10 +7736,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7763,10 +7747,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7774,10 +7758,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7803,21 +7787,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7825,10 +7809,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7836,10 +7820,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7847,10 +7831,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7858,10 +7842,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7869,10 +7853,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7880,10 +7864,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7910,21 +7894,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95">
       <c r="A2" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7932,10 +7916,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.95">
       <c r="A3" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7943,10 +7927,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.95">
       <c r="A4" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7954,10 +7938,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.95">
       <c r="A5" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7965,10 +7949,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.95">
       <c r="A6" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -8000,21 +7984,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8022,10 +8006,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8033,10 +8017,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8044,10 +8028,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8055,10 +8039,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8066,10 +8050,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8077,10 +8061,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -8088,10 +8072,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8099,10 +8083,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8110,10 +8094,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8145,21 +8129,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8167,10 +8151,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8178,10 +8162,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8189,10 +8173,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8200,10 +8184,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8211,10 +8195,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8222,10 +8206,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -8233,10 +8217,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8244,10 +8228,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8255,10 +8239,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8285,21 +8269,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8307,10 +8291,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -8318,10 +8302,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8329,10 +8313,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -8340,10 +8324,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8351,10 +8335,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8386,21 +8370,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8408,10 +8392,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8419,10 +8403,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8430,10 +8414,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8441,10 +8425,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8452,10 +8436,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8463,10 +8447,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -8474,10 +8458,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8485,10 +8469,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8496,10 +8480,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8507,10 +8491,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8518,10 +8502,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8636,21 +8620,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8658,10 +8642,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8669,10 +8653,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8680,10 +8664,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8691,10 +8675,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8702,10 +8686,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8713,10 +8697,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -8724,10 +8708,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8735,10 +8719,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8746,10 +8730,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8757,10 +8741,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8768,10 +8752,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8798,21 +8782,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8820,10 +8804,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -8831,10 +8815,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8842,10 +8826,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -8853,10 +8837,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8864,10 +8848,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8875,10 +8859,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -8886,10 +8870,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -8897,10 +8881,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -8927,53 +8911,53 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8981,10 +8965,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8992,26 +8976,26 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -9035,21 +9019,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="13">
         <v>4</v>
@@ -9057,10 +9041,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -9068,10 +9052,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="13">
         <v>4</v>
@@ -9079,10 +9063,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -9090,10 +9074,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -9101,10 +9085,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -9112,10 +9096,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9123,10 +9107,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -9134,10 +9118,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -9164,21 +9148,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9186,10 +9170,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9216,21 +9200,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9238,10 +9222,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9268,21 +9252,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9290,10 +9274,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -9320,21 +9304,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -9342,10 +9326,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="13">
         <v>3</v>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{1FDB2B67-9247-3F41-9AAA-EAE163373768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FFEF5C-2E25-407B-B0F2-1DC67A7E570C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BD4ED-D024-8340-A636-23BCF99578A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33420" yWindow="1100" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -1753,7 +1753,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,13 +2279,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D2">
         <v>460</v>
@@ -2355,7 +2355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>370</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I3">
         <v>70</v>
@@ -2390,7 +2390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2683,27 +2683,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2721,17 +2721,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2746,26 +2746,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2783,16 +2783,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>119</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>121</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>133</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>135</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>137</v>
       </c>
@@ -3016,15 +3016,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>119</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>121</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>133</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>135</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>137</v>
       </c>
@@ -3248,16 +3248,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>153</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>155</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>157</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>160</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>162</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>165</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>169</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>171</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>153</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>155</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>160</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>162</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>165</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>169</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>171</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>155</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>160</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>162</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>165</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>169</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>171</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>155</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>157</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>160</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>162</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>165</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>140</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>169</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>171</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>153</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>155</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>160</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>181</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>165</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>169</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>171</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>153</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>155</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>185</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>162</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>165</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>140</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>190</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>194</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>153</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>155</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>185</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>162</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>165</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>140</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>190</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>192</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>194</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>153</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>155</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>185</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>199</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>155</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>162</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>165</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>140</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>190</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>192</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>194</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>194</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>194</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>194</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>194</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>194</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>194</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>194</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>194</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>203</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>205</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>207</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>209</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>157</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>140</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>140</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>213</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>192</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>203</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>205</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>207</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>209</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>157</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>140</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>140</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>213</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>192</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>203</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>205</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>207</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>209</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>157</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>140</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>140</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>213</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>192</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>100</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>203</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>205</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>207</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>209</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>157</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>140</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>140</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>213</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>192</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>101</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>203</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>205</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>207</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>209</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>157</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>140</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
         <v>140</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>213</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>192</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>102</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>203</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>205</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>194</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>194</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>194</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>194</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>140</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>213</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>192</v>
       </c>
@@ -5002,15 +5002,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>249</v>
       </c>
@@ -5219,14 +5219,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -5334,14 +5334,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>269</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>271</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>273</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>252</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>169</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>277</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>279</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>281</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>283</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>285</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>160</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>153</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>289</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>291</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>293</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>295</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>297</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>299</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>301</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>303</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>305</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>307</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>309</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>311</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>313</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>315</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>225</v>
       </c>
@@ -5662,16 +5662,16 @@
       <selection activeCell="B42" sqref="B42:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>318</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>321</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>140</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>269</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>325</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>327</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>330</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>332</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>140</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>269</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>325</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>327</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>334</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>321</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>320</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>140</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>341</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>343</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>345</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>320</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>140</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>269</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>325</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>327</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>330</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>293</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>291</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>351</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>354</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>356</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>358</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>361</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>289</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>364</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>366</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>368</v>
       </c>
@@ -6228,28 +6228,28 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
@@ -6380,15 +6380,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>345</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>373</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>375</v>
       </c>
@@ -6459,15 +6459,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>377</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>311</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>285</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>381</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -6648,52 +6648,52 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -6711,47 +6711,47 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>389</v>
       </c>
@@ -6769,82 +6769,82 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>396</v>
       </c>
@@ -6862,42 +6862,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>403</v>
       </c>
@@ -6915,47 +6915,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>407</v>
       </c>
@@ -6973,32 +6973,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -7016,32 +7016,32 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -7059,13 +7059,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>391</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>388</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>424</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>389</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -7177,23 +7177,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -7211,13 +7211,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>385</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>388</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>424</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -7318,13 +7318,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>393</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>394</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>395</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>450</v>
       </c>
@@ -7502,13 +7502,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>393</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>394</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>395</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>450</v>
       </c>
@@ -7684,13 +7684,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>457</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>459</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>406</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>462</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>402</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>403</v>
       </c>
@@ -7780,12 +7780,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>405</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>457</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>459</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>406</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>401</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>402</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>407</v>
       </c>
@@ -7886,13 +7886,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.95">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>472</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>474</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.95">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>476</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.95">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>284</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.95">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>478</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7976,13 +7976,13 @@
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>480</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>481</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>294</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>482</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>484</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>485</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>284</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>486</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>488</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>490</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8121,13 +8121,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>480</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>481</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>294</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>472</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>484</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>485</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>284</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>486</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>488</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>490</v>
       </c>
@@ -8261,13 +8261,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>472</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>474</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>476</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>284</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>478</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>492</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
@@ -8362,13 +8362,13 @@
       <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>480</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>481</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>294</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>482</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>484</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>485</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>284</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>486</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>494</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>488</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>490</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>492</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8529,72 +8529,72 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8612,13 +8612,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>480</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>481</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>294</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>472</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>484</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>485</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>284</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>486</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>494</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>488</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>490</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>492</v>
       </c>
@@ -8774,13 +8774,13 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>495</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>496</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>498</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>500</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>502</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>504</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>484</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>485</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>506</v>
       </c>
@@ -8903,13 +8903,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>509</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>510</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>512</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>514</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>516</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>517</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>519</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>521</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>523</v>
       </c>
@@ -9011,13 +9011,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>525</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>526</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>527</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>529</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>530</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>532</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>534</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>536</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>538</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>539</v>
       </c>
@@ -9140,13 +9140,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>542</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>543</v>
       </c>
@@ -9192,13 +9192,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>545</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>546</v>
       </c>
@@ -9244,13 +9244,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>548</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>550</v>
       </c>
@@ -9296,13 +9296,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>552</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>554</v>
       </c>
@@ -9348,72 +9348,72 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -9431,69 +9431,69 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -9511,84 +9511,84 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -9606,144 +9606,144 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -9761,22 +9761,22 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BD4ED-D024-8340-A636-23BCF99578A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495D6AF-3046-B142-AAFE-C95753DD8C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="1100" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="557">
   <si>
     <t>tankName</t>
   </si>
@@ -90,24 +90,6 @@
     <t>kabinName</t>
   </si>
   <si>
-    <t>gecisX</t>
-  </si>
-  <si>
-    <t>gecisY</t>
-  </si>
-  <si>
-    <t>gecisH</t>
-  </si>
-  <si>
-    <t>kabinX</t>
-  </si>
-  <si>
-    <t>kabinY</t>
-  </si>
-  <si>
-    <t>kabinH</t>
-  </si>
-  <si>
     <t>kabinHacim</t>
   </si>
   <si>
@@ -1747,6 +1729,30 @@
   </si>
   <si>
     <t>PUL M6 BEYAZ</t>
+  </si>
+  <si>
+    <t>gecisX (G)</t>
+  </si>
+  <si>
+    <t>gecisY (D)</t>
+  </si>
+  <si>
+    <t>gecisH (Y)</t>
+  </si>
+  <si>
+    <t>kabinX (G)</t>
+  </si>
+  <si>
+    <t>kabinY (D)</t>
+  </si>
+  <si>
+    <t>kabinH (Y)</t>
+  </si>
+  <si>
+    <t>Bu Üç Sütun Tanka Ait</t>
+  </si>
+  <si>
+    <t>Bu Üç Sütun Kabine Ait</t>
   </si>
 </sst>
 </file>
@@ -2277,13 +2283,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2293,39 +2303,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>580</v>
@@ -2349,18 +2359,18 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>640</v>
@@ -2384,18 +2394,18 @@
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>640</v>
@@ -2419,18 +2429,18 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>720</v>
@@ -2454,18 +2464,18 @@
         <v>125</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>900</v>
@@ -2489,18 +2499,18 @@
         <v>160</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>900</v>
@@ -2524,18 +2534,18 @@
         <v>200</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1100</v>
@@ -2559,18 +2569,18 @@
         <v>250</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1100</v>
@@ -2594,18 +2604,18 @@
         <v>300</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1100</v>
@@ -2629,18 +2639,18 @@
         <v>350</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1100</v>
@@ -2664,10 +2674,18 @@
         <v>400</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -2690,22 +2708,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2728,12 +2746,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2757,17 +2775,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2794,38 +2812,38 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2833,10 +2851,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2844,10 +2862,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2855,27 +2873,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2883,10 +2901,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2894,10 +2912,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2905,27 +2923,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2933,10 +2951,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2944,10 +2962,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2955,27 +2973,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2983,10 +3001,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2994,10 +3012,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3026,38 +3044,38 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -3065,10 +3083,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3076,10 +3094,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3087,27 +3105,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3115,10 +3133,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3126,10 +3144,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3137,27 +3155,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3165,10 +3183,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3176,10 +3194,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3187,27 +3205,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -3215,10 +3233,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3226,10 +3244,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3259,24 +3277,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3284,10 +3302,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3295,10 +3313,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3306,24 +3324,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3331,38 +3349,38 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3370,10 +3388,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3381,10 +3399,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3392,13 +3410,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3406,10 +3424,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3417,10 +3435,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -3428,10 +3446,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3439,10 +3457,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3450,10 +3468,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3461,10 +3479,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3472,10 +3490,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3483,10 +3501,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3494,10 +3512,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3505,13 +3523,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3519,10 +3537,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3530,10 +3548,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3541,10 +3559,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3552,10 +3570,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3563,10 +3581,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3574,10 +3592,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3585,10 +3603,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3596,10 +3614,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3607,10 +3625,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3618,13 +3636,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3632,10 +3650,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3643,10 +3661,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3654,10 +3672,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3665,10 +3683,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3676,10 +3694,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3687,10 +3705,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3698,10 +3716,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3709,10 +3727,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3720,10 +3738,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3731,13 +3749,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3745,10 +3763,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3756,10 +3774,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -3767,10 +3785,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3778,10 +3796,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3789,24 +3807,24 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3814,10 +3832,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3825,10 +3843,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3836,10 +3854,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3847,13 +3865,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3861,10 +3879,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3872,10 +3890,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3883,24 +3901,24 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3908,10 +3926,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3919,10 +3937,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3930,10 +3948,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3941,10 +3959,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3952,10 +3970,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3963,13 +3981,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3977,10 +3995,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -3988,10 +4006,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3999,10 +4017,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4010,10 +4028,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4021,10 +4039,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4032,10 +4050,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4043,10 +4061,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4054,10 +4072,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4065,10 +4083,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4076,13 +4094,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4090,10 +4108,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4101,10 +4119,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4112,10 +4130,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4123,10 +4141,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4134,10 +4152,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4145,10 +4163,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4156,10 +4174,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4167,10 +4185,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4178,10 +4196,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4189,10 +4207,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4200,13 +4218,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4214,10 +4232,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4225,10 +4243,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4236,10 +4254,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4247,10 +4265,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4258,10 +4276,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4269,10 +4287,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4280,10 +4298,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4291,10 +4309,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4302,10 +4320,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4313,13 +4331,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4327,10 +4345,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4338,10 +4356,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4349,10 +4367,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4360,10 +4378,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4371,10 +4389,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4382,10 +4400,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4393,10 +4411,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4404,10 +4422,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4415,10 +4433,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4426,13 +4444,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4440,10 +4458,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -4451,10 +4469,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -4462,10 +4480,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4473,10 +4491,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4484,10 +4502,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4495,10 +4513,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4506,10 +4524,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4517,10 +4535,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4528,10 +4546,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4539,13 +4557,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4553,10 +4571,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -4564,10 +4582,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -4575,10 +4593,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4586,10 +4604,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4597,10 +4615,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4608,10 +4626,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4619,10 +4637,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4630,10 +4648,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4641,10 +4659,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4652,13 +4670,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -4666,10 +4684,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4677,10 +4695,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -4688,10 +4706,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4699,10 +4717,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4710,10 +4728,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4721,10 +4739,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4732,10 +4750,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4743,10 +4761,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4754,10 +4772,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C132" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4765,13 +4783,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C133" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4779,10 +4797,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4790,10 +4808,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -4801,10 +4819,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4812,10 +4830,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4823,10 +4841,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4834,10 +4852,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4845,10 +4863,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4856,10 +4874,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4867,10 +4885,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C142" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4878,13 +4896,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B143" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4892,10 +4910,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -4903,10 +4921,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -4914,10 +4932,10 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C146" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4925,10 +4943,10 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4936,10 +4954,10 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4947,10 +4965,10 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C149" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4958,10 +4976,10 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4969,10 +4987,10 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4980,10 +4998,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5012,24 +5030,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5037,13 +5055,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5051,13 +5069,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5065,13 +5083,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5079,13 +5097,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5093,13 +5111,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5107,13 +5125,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5121,13 +5139,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5135,13 +5153,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5149,13 +5167,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5163,13 +5181,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5177,29 +5195,29 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5228,24 +5246,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5253,13 +5271,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5267,13 +5285,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5281,13 +5299,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5295,13 +5313,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5309,13 +5327,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5343,21 +5361,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -5365,10 +5383,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -5376,10 +5394,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -5387,10 +5405,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -5398,10 +5416,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -5409,10 +5427,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -5420,10 +5438,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -5431,10 +5449,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -5442,10 +5460,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -5453,10 +5471,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -5464,10 +5482,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -5475,10 +5493,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -5486,10 +5504,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -5497,10 +5515,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -5508,10 +5526,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
@@ -5519,10 +5537,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -5530,10 +5548,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -5541,10 +5559,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -5552,10 +5570,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -5563,10 +5581,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -5574,10 +5592,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -5585,10 +5603,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5596,10 +5614,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -5607,10 +5625,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -5618,10 +5636,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -5629,10 +5647,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -5640,10 +5658,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -5673,41 +5691,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5715,13 +5733,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5729,10 +5747,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5740,10 +5758,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5751,10 +5769,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -5762,24 +5780,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -5787,13 +5805,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5801,13 +5819,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -5815,13 +5833,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5829,10 +5847,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5840,10 +5858,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5851,10 +5869,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5862,27 +5880,27 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -5890,13 +5908,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5904,13 +5922,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5918,13 +5936,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5932,13 +5950,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5946,10 +5964,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5957,10 +5975,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -5968,10 +5986,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5979,10 +5997,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -5990,13 +6008,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -6004,13 +6022,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -6018,13 +6036,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -6032,10 +6050,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -6043,10 +6061,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -6054,10 +6072,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6065,10 +6083,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -6076,10 +6094,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -6087,24 +6105,24 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6112,24 +6130,24 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6137,10 +6155,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -6148,24 +6166,24 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -6173,10 +6191,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6184,10 +6202,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6195,10 +6213,10 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6206,10 +6224,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6251,61 +6269,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6390,24 +6408,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6415,10 +6433,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6426,10 +6444,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6437,10 +6455,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6469,21 +6487,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6491,10 +6509,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6502,10 +6520,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6513,13 +6531,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6527,112 +6545,112 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6655,47 +6673,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6718,42 +6736,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6776,77 +6794,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6869,37 +6887,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6922,42 +6940,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -6980,27 +6998,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7023,27 +7041,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -7067,21 +7085,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7089,10 +7107,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7100,10 +7118,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7111,10 +7129,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7122,10 +7140,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7133,10 +7151,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7144,10 +7162,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7155,10 +7173,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7185,17 +7203,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7219,21 +7237,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7241,10 +7259,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7252,10 +7270,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7263,10 +7281,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7274,10 +7292,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7285,10 +7303,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7296,10 +7314,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7326,21 +7344,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -7348,10 +7366,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7359,10 +7377,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7370,10 +7388,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7381,10 +7399,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7392,10 +7410,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7403,10 +7421,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7414,10 +7432,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7425,10 +7443,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -7436,10 +7454,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7447,10 +7465,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7458,10 +7476,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -7469,10 +7487,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -7480,10 +7498,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7510,21 +7528,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -7532,10 +7550,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -7543,10 +7561,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7554,10 +7572,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -7565,10 +7583,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -7576,10 +7594,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -7587,10 +7605,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -7598,10 +7616,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7609,10 +7627,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7620,10 +7638,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7631,10 +7649,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7642,10 +7660,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7653,10 +7671,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7664,10 +7682,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7692,21 +7710,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7714,10 +7732,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7725,10 +7743,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7736,10 +7754,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7747,10 +7765,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7758,10 +7776,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7787,21 +7805,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7809,10 +7827,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7820,10 +7838,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7831,10 +7849,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7842,10 +7860,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7853,10 +7871,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7864,10 +7882,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7894,21 +7912,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7916,10 +7934,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7927,10 +7945,10 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7938,10 +7956,10 @@
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7949,10 +7967,10 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -7984,21 +8002,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8006,10 +8024,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8017,10 +8035,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8028,10 +8046,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8039,10 +8057,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8050,10 +8068,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8061,10 +8079,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -8072,10 +8090,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8083,10 +8101,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8094,10 +8112,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8129,21 +8147,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8151,10 +8169,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8162,10 +8180,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8173,10 +8191,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8184,10 +8202,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8195,10 +8213,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8206,10 +8224,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -8217,10 +8235,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8228,10 +8246,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8239,10 +8257,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8269,21 +8287,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8291,10 +8309,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -8302,10 +8320,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8313,10 +8331,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -8324,10 +8342,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8335,10 +8353,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8370,21 +8388,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8392,10 +8410,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8403,10 +8421,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8414,10 +8432,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8425,10 +8443,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8436,10 +8454,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8447,10 +8465,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -8458,10 +8476,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8469,10 +8487,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8480,10 +8498,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8491,10 +8509,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8502,10 +8520,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8536,67 +8554,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8620,21 +8638,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8642,10 +8660,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8653,10 +8671,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -8664,10 +8682,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8675,10 +8693,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8686,10 +8704,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8697,10 +8715,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -8708,10 +8726,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8719,10 +8737,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8730,10 +8748,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8741,10 +8759,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8752,10 +8770,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8782,21 +8800,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8804,10 +8822,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -8815,10 +8833,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8826,10 +8844,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -8837,10 +8855,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8848,10 +8866,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8859,10 +8877,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -8870,10 +8888,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -8881,10 +8899,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -8911,53 +8929,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8965,10 +8983,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8976,26 +8994,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -9019,21 +9037,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="13">
         <v>4</v>
@@ -9041,10 +9059,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -9052,10 +9070,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" s="13">
         <v>4</v>
@@ -9063,10 +9081,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -9074,10 +9092,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -9085,10 +9103,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -9096,10 +9114,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9107,10 +9125,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -9118,10 +9136,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -9148,21 +9166,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9170,10 +9188,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9200,21 +9218,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9222,10 +9240,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9252,21 +9270,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9274,10 +9292,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -9304,21 +9322,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -9326,10 +9344,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C3" s="13">
         <v>3</v>
@@ -9355,67 +9373,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -9435,67 +9453,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9515,82 +9533,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -9610,142 +9628,142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -9768,17 +9786,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495D6AF-3046-B142-AAFE-C95753DD8C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E65FC-1C70-1B46-8CA0-4512C97E74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="1100" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="555">
   <si>
     <t>tankName</t>
   </si>
@@ -1747,12 +1747,6 @@
   </si>
   <si>
     <t>kabinH (Y)</t>
-  </si>
-  <si>
-    <t>Bu Üç Sütun Tanka Ait</t>
-  </si>
-  <si>
-    <t>Bu Üç Sütun Kabine Ait</t>
   </si>
 </sst>
 </file>
@@ -2283,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2678,14 +2672,6 @@
       </c>
       <c r="K11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>556</v>
-      </c>
-      <c r="G12" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E65FC-1C70-1B46-8CA0-4512C97E74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E24A5-6A89-AC47-BB7D-4C6185EA79B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="1100" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -35,31 +35,33 @@
     <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId20"/>
     <sheet name="Parça-Standart" sheetId="22" r:id="rId21"/>
     <sheet name="Hidros-380" sheetId="25" r:id="rId22"/>
-    <sheet name="Hidros-220" sheetId="26" r:id="rId23"/>
-    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId24"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId25"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId26"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId27"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId28"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId29"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId30"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId44"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId45"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId46"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId47"/>
+    <sheet name="İthal-380" sheetId="56" r:id="rId23"/>
+    <sheet name="Hidros-220" sheetId="26" r:id="rId24"/>
+    <sheet name="İthal-220" sheetId="57" r:id="rId25"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId26"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId27"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId28"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId29"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId30"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId45"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId46"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId47"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId48"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId49"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="555">
   <si>
     <t>tankName</t>
   </si>
@@ -2279,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A8365-9D0E-904C-9F24-5AF3677803F7}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6649,7 +6651,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6708,11 +6710,69 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4135A44F-DD48-3448-B378-603E6F533F9B}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9541355-E856-4355-88CD-486F283E4EC4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6765,7 +6825,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18CDD4-367F-714B-9BE9-B9CF0059F8FE}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -6858,7 +6976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -6911,7 +7029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -6969,7 +7087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7005,167 +7123,6 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>406</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7208,6 +7165,167 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7314,7 +7432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7498,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7682,7 +7800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7776,7 +7894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7882,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7972,7 +8090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8117,7 +8235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8251,274 +8369,6 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="72.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8609,6 +8459,274 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8770,7 +8888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8899,7 +9017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9007,7 +9125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9136,7 +9254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9188,7 +9306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9240,7 +9358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9292,7 +9410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E24A5-6A89-AC47-BB7D-4C6185EA79B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA5C6D-031E-3249-A6FC-0DFD57EE7EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="20" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -39,29 +39,30 @@
     <sheet name="Hidros-220" sheetId="26" r:id="rId24"/>
     <sheet name="İthal-220" sheetId="57" r:id="rId25"/>
     <sheet name="Hidros-Pompa" sheetId="27" r:id="rId26"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId27"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId28"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId29"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId30"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId44"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId45"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId46"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId47"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId48"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId49"/>
+    <sheet name="İthal-Pompa" sheetId="58" r:id="rId27"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId28"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId29"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId30"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId45"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId46"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId47"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId48"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId49"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId50"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="556">
   <si>
     <t>tankName</t>
   </si>
@@ -1749,13 +1750,16 @@
   </si>
   <si>
     <t>kabinH (Y)</t>
+  </si>
+  <si>
+    <t>9.8 cc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,6 +1819,14 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1931,7 +1943,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1995,6 +2007,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6772,7 +6787,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6829,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18CDD4-367F-714B-9BE9-B9CF0059F8FE}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6977,6 +6992,104 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A1F14-E531-754B-A829-88BD39526CE6}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -7029,7 +7142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -7080,49 +7193,6 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7165,6 +7235,49 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7207,7 +7320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7325,7 +7438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7432,7 +7545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7616,7 +7729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7800,7 +7913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7894,7 +8007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8000,7 +8113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8090,7 +8203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8229,146 +8342,6 @@
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8459,6 +8432,146 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8559,7 +8672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -8726,7 +8839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8888,7 +9001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9017,7 +9130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9125,7 +9238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9254,7 +9367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9306,7 +9419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9358,7 +9471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9402,58 +9515,6 @@
         <v>545</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="C2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="13">
         <v>3</v>
       </c>
     </row>
@@ -9545,6 +9606,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A13"/>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA5C6D-031E-3249-A6FC-0DFD57EE7EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41718654-6489-334E-974F-DF9588241BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="20" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="20780" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -6995,7 +6995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A1F14-E531-754B-A829-88BD39526CE6}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7238,8 +7238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41718654-6489-334E-974F-DF9588241BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B6DE62-FFBC-0A4C-B142-B3F1FF5B1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="20780" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="555">
   <si>
     <t>tankName</t>
   </si>
@@ -1299,12 +1299,6 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>Devirmeli</t>
-  </si>
-  <si>
-    <t>Yürüyüş</t>
-  </si>
-  <si>
     <t>Özel</t>
   </si>
   <si>
@@ -1753,6 +1747,9 @@
   </si>
   <si>
     <t>9.8 cc</t>
+  </si>
+  <si>
+    <t>Devirmeli + Yürüyüş</t>
   </si>
 </sst>
 </file>
@@ -2314,22 +2311,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>550</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>552</v>
-      </c>
-      <c r="G1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H1" t="s">
-        <v>554</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -7081,7 +7078,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -7236,10 +7233,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7259,17 +7256,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7292,27 +7284,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +7331,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -7350,7 +7342,7 @@
         <v>385</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7361,7 +7353,7 @@
         <v>380</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7372,7 +7364,7 @@
         <v>381</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7383,7 +7375,7 @@
         <v>382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7394,7 +7386,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7402,10 +7394,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7416,7 +7408,7 @@
         <v>383</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7427,7 +7419,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7457,7 +7449,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -7468,7 +7460,7 @@
         <v>379</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7479,7 +7471,7 @@
         <v>380</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7490,7 +7482,7 @@
         <v>381</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7501,7 +7493,7 @@
         <v>382</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7512,7 +7504,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7520,10 +7512,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7534,7 +7526,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7561,10 +7553,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -7575,7 +7567,7 @@
         <v>387</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -7586,7 +7578,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7597,7 +7589,7 @@
         <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7608,7 +7600,7 @@
         <v>389</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7619,7 +7611,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7630,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7641,7 +7633,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7652,7 +7644,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7663,7 +7655,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -7674,7 +7666,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7685,7 +7677,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7696,7 +7688,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -7707,7 +7699,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -7715,10 +7707,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7745,10 +7737,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -7759,7 +7751,7 @@
         <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -7770,7 +7762,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -7781,7 +7773,7 @@
         <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7792,7 +7784,7 @@
         <v>389</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -7803,7 +7795,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -7814,7 +7806,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -7825,7 +7817,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -7836,7 +7828,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7847,7 +7839,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7858,7 +7850,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7869,7 +7861,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7880,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7891,7 +7883,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7899,10 +7891,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7927,10 +7919,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -7938,10 +7930,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7949,10 +7941,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7963,7 +7955,7 @@
         <v>400</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7971,10 +7963,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7985,7 +7977,7 @@
         <v>396</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7996,7 +7988,7 @@
         <v>397</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -8022,10 +8014,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8036,7 +8028,7 @@
         <v>399</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -8044,10 +8036,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -8055,10 +8047,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -8069,7 +8061,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -8080,7 +8072,7 @@
         <v>395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -8091,7 +8083,7 @@
         <v>396</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -8102,7 +8094,7 @@
         <v>401</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -8129,10 +8121,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8140,10 +8132,10 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -8151,10 +8143,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -8162,10 +8154,10 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -8184,10 +8176,10 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -8219,10 +8211,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8230,7 +8222,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>309</v>
@@ -8241,7 +8233,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>285</v>
@@ -8263,10 +8255,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8274,10 +8266,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8285,10 +8277,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8307,10 +8299,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8318,10 +8310,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8329,10 +8321,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8447,10 +8439,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8458,7 +8450,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>309</v>
@@ -8469,7 +8461,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>285</v>
@@ -8491,10 +8483,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8502,10 +8494,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8513,10 +8505,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -8535,10 +8527,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8546,10 +8538,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -8557,10 +8549,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8587,10 +8579,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8598,10 +8590,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -8609,10 +8601,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -8620,10 +8612,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -8642,10 +8634,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -8653,10 +8645,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -8688,10 +8680,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8699,7 +8691,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>309</v>
@@ -8710,7 +8702,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>285</v>
@@ -8732,10 +8724,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8743,10 +8735,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8754,10 +8746,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8776,10 +8768,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8787,10 +8779,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8798,10 +8790,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8809,10 +8801,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8820,10 +8812,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -8855,10 +8847,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -8866,7 +8858,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>309</v>
@@ -8877,7 +8869,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>285</v>
@@ -8899,10 +8891,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8910,10 +8902,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -8921,10 +8913,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8943,10 +8935,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -8954,10 +8946,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -8965,10 +8957,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -8976,10 +8968,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8987,10 +8979,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -9017,10 +9009,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9028,10 +9020,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -9039,10 +9031,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -9050,10 +9042,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -9061,10 +9053,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -9072,7 +9064,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>285</v>
@@ -9083,10 +9075,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -9094,10 +9086,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -9105,10 +9097,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -9116,10 +9108,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -9146,10 +9138,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9157,7 +9149,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>305</v>
@@ -9165,31 +9157,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>365</v>
@@ -9200,10 +9192,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9211,26 +9203,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -9254,7 +9246,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>106</v>
@@ -9265,7 +9257,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>147</v>
@@ -9276,10 +9268,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -9287,7 +9279,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>149</v>
@@ -9298,10 +9290,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -9309,10 +9301,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -9320,10 +9312,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -9331,10 +9323,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9342,10 +9334,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -9353,10 +9345,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -9383,10 +9375,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9394,10 +9386,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9405,10 +9397,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9435,10 +9427,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9446,10 +9438,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -9457,10 +9449,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9487,10 +9479,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9498,10 +9490,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -9509,10 +9501,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -9622,10 +9614,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
@@ -9633,10 +9625,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -9644,7 +9636,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>149</v>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B6DE62-FFBC-0A4C-B142-B3F1FF5B1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFC78C-6105-FD45-8187-01FAB9FA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="20780" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="500" windowWidth="38080" windowHeight="19420" firstSheet="20" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -38,31 +38,33 @@
     <sheet name="İthal-380" sheetId="56" r:id="rId23"/>
     <sheet name="Hidros-220" sheetId="26" r:id="rId24"/>
     <sheet name="İthal-220" sheetId="57" r:id="rId25"/>
-    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId26"/>
-    <sheet name="İthal-Pompa" sheetId="58" r:id="rId27"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId28"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId29"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId30"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId44"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId45"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId46"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId47"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId48"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId49"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId50"/>
+    <sheet name="Hidros-DC" sheetId="59" r:id="rId26"/>
+    <sheet name="İthal-DC" sheetId="60" r:id="rId27"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId28"/>
+    <sheet name="İthal-Pompa" sheetId="58" r:id="rId29"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId30"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId31"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId32"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId45"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId46"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId47"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId48"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId49"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId50"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId51"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId52"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="559">
   <si>
     <t>tankName</t>
   </si>
@@ -1750,6 +1752,18 @@
   </si>
   <si>
     <t>Devirmeli + Yürüyüş</t>
+  </si>
+  <si>
+    <t>12V dc</t>
+  </si>
+  <si>
+    <t>24V dc</t>
+  </si>
+  <si>
+    <t>0.8 kW</t>
+  </si>
+  <si>
+    <t>1.6 kW</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1954,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2009,6 +2023,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6896,6 +6911,100 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E383A89A-4E59-E945-898A-4356C7E27E8F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D2248-F4C3-B94D-9454-C09E66A403D3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -6988,7 +7097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A1F14-E531-754B-A829-88BD39526CE6}">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -7079,117 +7188,6 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>553</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7232,10 +7230,121 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7269,7 +7378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7312,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7430,7 +7539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7537,7 +7646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7721,7 +7830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7905,7 +8014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7999,7 +8108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8099,241 +8208,6 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8424,6 +8298,241 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8563,7 +8672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8664,7 +8773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -8831,7 +8940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8993,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9122,7 +9231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9230,7 +9339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9359,7 +9468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9404,110 +9513,6 @@
       </c>
       <c r="C3" s="13">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9599,6 +9604,110 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFC78C-6105-FD45-8187-01FAB9FA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DBEF2-1170-224B-9903-EC84ABEFA969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="500" windowWidth="38080" windowHeight="19420" firstSheet="20" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="500" windowWidth="38080" windowHeight="19420" firstSheet="43" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -43,28 +43,36 @@
     <sheet name="Hidros-Pompa" sheetId="27" r:id="rId28"/>
     <sheet name="İthal-Pompa" sheetId="58" r:id="rId29"/>
     <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId30"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId31"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId32"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId44"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId45"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId46"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId47"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId48"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId49"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId50"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId51"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId52"/>
+    <sheet name="İthal-Tank-Dikey" sheetId="61" r:id="rId31"/>
+    <sheet name="İthal-Tank-Yatay" sheetId="62" r:id="rId32"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId33"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId34"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId36"/>
+    <sheet name="Parça-İthal-Motor380" sheetId="63" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId38"/>
+    <sheet name="Parça-İthal-Motor220" sheetId="64" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId40"/>
+    <sheet name="Parça-İthal-Pompa" sheetId="65" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId42"/>
+    <sheet name="Parça-İthal-Pompa-Civata" sheetId="66" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId45"/>
+    <sheet name="Parça-İthal-Tank-Dikey" sheetId="67" r:id="rId46"/>
+    <sheet name="Parça-İthal-Tank-Yatay" sheetId="68" r:id="rId47"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId48"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId49"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId50"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId51"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId52"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId53"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId54"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId55"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId56"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId57"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId58"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId59"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId60"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -87,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="584">
   <si>
     <t>tankName</t>
   </si>
@@ -1764,13 +1772,88 @@
   </si>
   <si>
     <t>1.6 kW</t>
+  </si>
+  <si>
+    <t>1 - 1/2 - 1 Galvanizli Redüksiyon</t>
+  </si>
+  <si>
+    <t>Yatay Dikey Tank Kapasiteleri</t>
+  </si>
+  <si>
+    <t>2,5 Lt</t>
+  </si>
+  <si>
+    <t>3,8 Lt</t>
+  </si>
+  <si>
+    <t>7 Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Lt </t>
+  </si>
+  <si>
+    <t>30 Lt</t>
+  </si>
+  <si>
+    <t>150-50-21-105</t>
+  </si>
+  <si>
+    <t>CİVATA İMBUS M8 80 MM BEYAZ (DIN 912 )</t>
+  </si>
+  <si>
+    <t>CİVATA İMBUS M8 90 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>CİVATA İMBUS M8 100 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>CİVATA İMBUS M8 110 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>GELEN PARTIDE ÖLÇÜ BAKILACAK</t>
+  </si>
+  <si>
+    <t>Tank seçim parametresi</t>
+  </si>
+  <si>
+    <t>YATAY - DİKEY</t>
+  </si>
+  <si>
+    <t>SADECE DİKEY</t>
+  </si>
+  <si>
+    <t>HAVALANDIRMA KAPAĞI 3/4</t>
+  </si>
+  <si>
+    <t>150-50-21-501</t>
+  </si>
+  <si>
+    <t>CİVATA ANAHTAR BAŞLI M6 10 MM BEYAZ (DIN 933 )</t>
+  </si>
+  <si>
+    <t>YATAY  DİKEY</t>
+  </si>
+  <si>
+    <t>2,5 - 10 LT DİKEY</t>
+  </si>
+  <si>
+    <t>PUL M8 BEYAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMUN M8 </t>
+  </si>
+  <si>
+    <t>CİVATA HAVŞA BAŞLI M8 30 MM BEYAZ (DIN 933)</t>
+  </si>
+  <si>
+    <t>TÜM LT YATAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,8 +1925,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2F75B5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1867,8 +1966,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1948,13 +2065,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2024,6 +2250,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3277,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4053,11 +4342,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="B67" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4644,7 +4933,7 @@
         <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4673,11 +4962,11 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>186</v>
+      <c r="B122" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>559</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4757,7 +5046,7 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4786,11 +5075,11 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>186</v>
+      <c r="B132" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>559</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4899,11 +5188,11 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>186</v>
+      <c r="B142" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>559</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -5012,11 +5301,11 @@
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>186</v>
+      <c r="B152" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>559</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5363,7 +5652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6914,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E383A89A-4E59-E945-898A-4356C7E27E8F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -7283,6 +7572,112 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F2E5B4-D419-F24E-B97E-6B666564BC35}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25EDF97-C581-CF49-AC15-AF1BAC834831}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -7340,7 +7735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -7378,7 +7773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7421,7 +7816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7539,7 +7934,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D499A6F3-3C4B-3049-90A2-7601A99CD884}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7646,567 +8171,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F3B453-FA5F-0C43-94A8-D372D59E054B}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>428</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
+        <v>383</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8298,6 +8371,1499 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01242C55-236F-C744-9495-40E0C6F4BFF1}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F302C9-5489-1645-BD38-98471FAC94AE}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C41819-28C2-9F40-87A1-5C36E615363E}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" s="49">
+        <v>4</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="49">
+        <v>2</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="49">
+        <v>4</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" s="49">
+        <v>4</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043CDC6-3455-F947-8060-157C0F13B4B5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="D7" s="49">
+        <v>4</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="51">
+        <v>4</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="49">
+        <v>4</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="49">
+        <v>4</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8387,7 +9953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8526,994 +10092,6 @@
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="72.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="69.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C3" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9604,6 +10182,994 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9655,7 +11221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9699,58 +11265,6 @@
         <v>543</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="13">
         <v>3</v>
       </c>
     </row>
@@ -9832,6 +11346,58 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DBEF2-1170-224B-9903-EC84ABEFA969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63E5E1-00C6-4A4A-B713-D8570DB6D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="500" windowWidth="38080" windowHeight="19420" firstSheet="43" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kabinler" sheetId="55" r:id="rId1"/>
@@ -6546,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6691,6 +6691,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9691,7 +9692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043CDC6-3455-F947-8060-157C0F13B4B5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:E10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/assets/data/Hidrolik.xlsx
+++ b/src/main/resources/assets/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidirektor/IdeaProjects/ondergrup-hydraulic-tool/src/main/resources/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FEA7C6-DAA2-B84F-9D3D-46B7052C11A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE7996-440D-324D-AC04-FB30046878A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30020" yWindow="3160" windowWidth="38080" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29120" yWindow="3140" windowWidth="38080" windowHeight="15820" firstSheet="39" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="5" r:id="rId1"/>
@@ -2453,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9289,10 +9289,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9363,14 +9363,9 @@
       <c r="B6" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
